--- a/output/ship_rule_integrate.xlsx
+++ b/output/ship_rule_integrate.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A1:F400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H13" sqref="A1:H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -383,65 +383,65 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>1.322328669186525</v>
+        <v>0.3132083963428481</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.07731303293277389</v>
+        <v>0.1254907390374396</v>
       </c>
     </row>
     <row r="5">
@@ -451,65 +451,65 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="n">
-        <v>1.322328669186525</v>
+        <v>0.3132083963428481</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.07731303293277389</v>
+        <v>0.1254907390374396</v>
       </c>
     </row>
     <row r="9">
@@ -519,65 +519,65 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>1.322328669186525</v>
+        <v>0.3132083963428481</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.07731303293277389</v>
+        <v>0.1254907390374396</v>
       </c>
     </row>
     <row r="13">
@@ -587,65 +587,65 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="n">
-        <v>1.322328669186525</v>
+        <v>0.3132083963428481</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.07731303293277389</v>
+        <v>0.1254907390374396</v>
       </c>
     </row>
     <row r="17">
@@ -655,65 +655,65 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="0" t="n">
-        <v>1.322328669186525</v>
+        <v>0.3132083963428481</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.07731303293277389</v>
+        <v>0.1254907390374396</v>
       </c>
     </row>
     <row r="21">
@@ -723,65 +723,65 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>1.322328669186525</v>
+        <v>0.3132083963428481</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.07731303293277389</v>
+        <v>0.1254907390374396</v>
       </c>
     </row>
     <row r="25">
@@ -791,52 +791,52 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -846,10 +846,10 @@
     </row>
     <row r="28">
       <c r="B28" s="0" t="n">
-        <v>1.322328669186525</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.07731303293277389</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="29">
@@ -859,52 +859,52 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
     </row>
     <row r="32">
       <c r="B32" s="0" t="n">
-        <v>1.322328669186525</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.07731303293277389</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="33">
@@ -927,52 +927,52 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
@@ -982,10 +982,10 @@
     </row>
     <row r="36">
       <c r="B36" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="37">
@@ -995,52 +995,52 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>550</v>
-      </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="40">
       <c r="B40" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="41">
@@ -1063,52 +1063,52 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="44">
       <c r="B44" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="45">
@@ -1131,52 +1131,52 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="48">
       <c r="B48" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="49">
@@ -1199,52 +1199,52 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="52">
       <c r="B52" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="53">
@@ -1267,52 +1267,52 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>650</v>
-      </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="56">
       <c r="B56" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="57">
@@ -1335,52 +1335,52 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="60">
       <c r="B60" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="61">
@@ -1403,52 +1403,52 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D63" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E63" s="0" t="n">
         <v>800</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>1500</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="65">
@@ -1471,52 +1471,52 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D66" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E66" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="E66" s="0" t="n">
-        <v>650</v>
-      </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="68">
       <c r="B68" s="0" t="n">
-        <v>1.320296359686909</v>
+        <v>0.2779295351689871</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.07215204659350381</v>
+        <v>0.1037598837019083</v>
       </c>
     </row>
     <row r="69">
@@ -1539,37 +1539,37 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -1578,26 +1578,26 @@
         <v>70</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="0" t="n">
-        <v>1.298365808041652</v>
+        <v>0.2090644890121974</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.09392207710437418</v>
+        <v>0.2371518878093012</v>
       </c>
     </row>
     <row r="73">
@@ -1607,52 +1607,52 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="76">
       <c r="B76" s="0" t="n">
-        <v>1.298365808041652</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.09392207710437418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1675,52 +1675,52 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="80">
       <c r="B80" s="0" t="n">
-        <v>1.298365808041652</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.09392207710437418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1743,37 +1743,37 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
         <v>70</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="84">
       <c r="B84" s="0" t="n">
-        <v>1.298365808041652</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.09392207710437418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1811,52 +1811,52 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="88">
       <c r="B88" s="0" t="n">
-        <v>1.296139800036301</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.09256263582566104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1879,65 +1879,65 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="E91" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="0" t="n">
-        <v>1.296139800036301</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.09256263582566104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1947,52 +1947,52 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="96">
       <c r="B96" s="0" t="n">
-        <v>1.296139800036301</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.09256263582566104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2015,52 +2015,52 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="100">
       <c r="B100" s="0" t="n">
-        <v>1.296139800036301</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.09256263582566104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2083,52 +2083,52 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="104">
       <c r="B104" s="0" t="n">
-        <v>1.296139800036301</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.09256263582566104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2151,52 +2151,52 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="108">
       <c r="B108" s="0" t="n">
-        <v>1.292237661292646</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.07749069498515732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2219,52 +2219,52 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="112">
       <c r="B112" s="0" t="n">
-        <v>1.292237661292646</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.07749069498515732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2287,65 +2287,65 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="0" t="n">
-        <v>1.290804073351171</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.08934441128768492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2355,65 +2355,65 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>1.290804073351171</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.08934441128768492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2423,65 +2423,65 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="0" t="n">
-        <v>1.290804073351171</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.08934441128768492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2491,65 +2491,65 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>750</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F126" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>1.2884500836702</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.0879427123122738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2559,65 +2559,65 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>750</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F130" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="0" t="n">
-        <v>1.2884500836702</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.0879427123122738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2627,65 +2627,65 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D134" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E134" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E134" s="0" t="n">
-        <v>650</v>
-      </c>
       <c r="F134" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="0" t="n">
-        <v>1.287009960350119</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.07663060129602635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2695,65 +2695,65 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>1.287009960350119</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.07663060129602635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2763,52 +2763,52 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="144">
       <c r="B144" s="0" t="n">
-        <v>1.270395350265971</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.08145809486123562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2831,52 +2831,52 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="148">
       <c r="B148" s="0" t="n">
-        <v>1.270395350265971</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.08145809486123562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2899,65 +2899,65 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F150" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" s="0" t="n">
-        <v>1.260577334754681</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.06183235924186078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -2967,65 +2967,65 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="0" t="n">
-        <v>1.260577334754681</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0.06183235924186078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3038,49 +3038,49 @@
         <v>40</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="B158" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F158" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="160">
       <c r="B160" s="0" t="n">
-        <v>1.222778086863748</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0.06951123187943331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3103,37 +3103,37 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F162" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -3142,13 +3142,13 @@
         <v>70</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="164">
       <c r="B164" s="0" t="n">
-        <v>1.115660474285628</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.01531697224854578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3171,65 +3171,65 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F166" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="B167" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="0" t="n">
-        <v>1.077898411932681</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0.007395947307624865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3239,65 +3239,65 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D170" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E170" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E170" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F170" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="B172" s="0" t="n">
-        <v>1.077898411932681</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>0.007395947307624865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3307,65 +3307,65 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F174" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="B175" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="0" t="n">
-        <v>1.077898411932681</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>0.007395947307624865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3375,37 +3375,37 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F178" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -3414,13 +3414,13 @@
         <v>30</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="0" t="n">
         <v>800</v>
-      </c>
-      <c r="E179" s="0" t="n">
-        <v>900</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="180">
       <c r="B180" s="0" t="n">
-        <v>1.0356981702574</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>0.05879169678301821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3443,65 +3443,65 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
       <c r="B182" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F182" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="B183" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="B184" s="0" t="n">
-        <v>1.0356981702574</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>0.05879169678301821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3511,16 +3511,16 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>16</v>
@@ -3528,20 +3528,20 @@
     </row>
     <row r="186">
       <c r="B186" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F186" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -3550,26 +3550,26 @@
         <v>30</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="B188" s="0" t="n">
-        <v>1.0356981702574</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>0.05879169678301821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3579,52 +3579,52 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F190" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="B191" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
@@ -3634,10 +3634,10 @@
     </row>
     <row r="192">
       <c r="B192" s="0" t="n">
-        <v>1.033817360817682</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>0.04304261207808637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3647,37 +3647,37 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -3686,10 +3686,10 @@
         <v>30</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1100</v>
@@ -3702,10 +3702,10 @@
     </row>
     <row r="196">
       <c r="B196" s="0" t="n">
-        <v>1.033817360817682</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>0.04304261207808637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3715,65 +3715,65 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>500</v>
       </c>
       <c r="F198" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="B199" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="B200" s="0" t="n">
-        <v>1.032385509745674</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>0.018667491650712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3783,37 +3783,37 @@
         </is>
       </c>
       <c r="B201" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="F202" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -3822,26 +3822,26 @@
         <v>30</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F203" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="B204" s="0" t="n">
-        <v>1.021897451398736</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>0.01954971717064425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -3851,65 +3851,65 @@
         </is>
       </c>
       <c r="B205" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F206" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="B207" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F207" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="B208" s="0" t="n">
-        <v>0.9517771208697259</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>0.02960844458701711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3919,65 +3919,65 @@
         </is>
       </c>
       <c r="B209" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F210" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="B211" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F211" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="B212" s="0" t="n">
-        <v>0.9517771208697259</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>0.02960844458701711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -3987,65 +3987,65 @@
         </is>
       </c>
       <c r="B213" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F214" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="B215" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F215" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="B216" s="0" t="n">
-        <v>0.9517771208697259</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C216" s="0" t="n">
-        <v>0.02960844458701711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -4055,65 +4055,65 @@
         </is>
       </c>
       <c r="B217" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F218" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="B219" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F219" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="B220" s="0" t="n">
-        <v>0.9488167623831953</v>
+        <v>0.163669066350086</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>0.0269040357181593</v>
+        <v>0.2536646436199578</v>
       </c>
     </row>
     <row r="221">
@@ -4123,65 +4123,65 @@
         </is>
       </c>
       <c r="B221" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F222" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="B223" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F223" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="B224" s="0" t="n">
-        <v>0.9169446957977521</v>
+        <v>0.1017411931671016</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>0.06098598660363084</v>
+        <v>0.4252195325781585</v>
       </c>
     </row>
     <row r="225">
@@ -4191,65 +4191,65 @@
         </is>
       </c>
       <c r="B225" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F226" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="B227" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F227" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="B228" s="0" t="n">
-        <v>0.9169446957977521</v>
+        <v>0.1017411931671016</v>
       </c>
       <c r="C228" s="0" t="n">
-        <v>0.06098598660363084</v>
+        <v>0.4252195325781585</v>
       </c>
     </row>
     <row r="229">
@@ -4259,65 +4259,65 @@
         </is>
       </c>
       <c r="B229" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C229" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F230" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="B231" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F231" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="B232" s="0" t="n">
-        <v>0.9169446957977521</v>
+        <v>0.1017411931671016</v>
       </c>
       <c r="C232" s="0" t="n">
-        <v>0.06098598660363084</v>
+        <v>0.4252195325781585</v>
       </c>
     </row>
     <row r="233">
@@ -4327,65 +4327,65 @@
         </is>
       </c>
       <c r="B233" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D234" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F234" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="B235" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E235" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F235" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="B236" s="0" t="n">
-        <v>0.8143395542444798</v>
+        <v>0.1017411931671016</v>
       </c>
       <c r="C236" s="0" t="n">
-        <v>0.03000727041720623</v>
+        <v>0.4252195325781585</v>
       </c>
     </row>
     <row r="237">
@@ -4395,65 +4395,65 @@
         </is>
       </c>
       <c r="B237" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E237" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F237" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E238" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F238" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="B239" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C239" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D239" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E239" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F239" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="B240" s="0" t="n">
-        <v>0.8143395542444798</v>
+        <v>0.09987850345512676</v>
       </c>
       <c r="C240" s="0" t="n">
-        <v>0.03000727041720623</v>
+        <v>0.4234156676726528</v>
       </c>
     </row>
     <row r="241">
@@ -4463,65 +4463,65 @@
         </is>
       </c>
       <c r="B241" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C242" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D242" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E242" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F242" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="B243" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C243" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D243" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E243" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F243" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="B244" s="0" t="n">
-        <v>0.8143395542444798</v>
+        <v>0.09987850345512676</v>
       </c>
       <c r="C244" s="0" t="n">
-        <v>0.03000727041720623</v>
+        <v>0.4234156676726528</v>
       </c>
     </row>
     <row r="245">
@@ -4531,65 +4531,65 @@
         </is>
       </c>
       <c r="B245" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C245" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E245" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F245" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246">
       <c r="B246" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C246" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E246" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F246" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="B247" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C247" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D247" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E247" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F247" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="B248" s="0" t="n">
-        <v>0.8143395542444798</v>
+        <v>0.09987850345512676</v>
       </c>
       <c r="C248" s="0" t="n">
-        <v>0.03000727041720623</v>
+        <v>0.4234156676726528</v>
       </c>
     </row>
     <row r="249">
@@ -4599,65 +4599,65 @@
         </is>
       </c>
       <c r="B249" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C249" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E249" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F249" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C250" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E250" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F250" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="B251" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C251" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E251" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F251" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="B252" s="0" t="n">
-        <v>0.7975827231916139</v>
+        <v>0.09412115500696289</v>
       </c>
       <c r="C252" s="0" t="n">
-        <v>0.02738122510838996</v>
+        <v>0.4244217396832697</v>
       </c>
     </row>
     <row r="253">
@@ -4667,65 +4667,65 @@
         </is>
       </c>
       <c r="B253" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C253" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E253" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F253" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C254" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E254" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F254" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="B255" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C255" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D255" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E255" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F255" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="B256" s="0" t="n">
-        <v>0.6854002989375938</v>
+        <v>0.09412115500696289</v>
       </c>
       <c r="C256" s="0" t="n">
-        <v>0.008424957623857886</v>
+        <v>0.4244217396832697</v>
       </c>
     </row>
     <row r="257">
@@ -4735,65 +4735,65 @@
         </is>
       </c>
       <c r="B257" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C257" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D257" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E257" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F257" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C258" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C258" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D258" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E258" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F258" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="B259" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C259" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D259" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E259" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F259" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="B260" s="0" t="n">
-        <v>0.6854002989375938</v>
+        <v>0.09397639458315224</v>
       </c>
       <c r="C260" s="0" t="n">
-        <v>0.008424957623857886</v>
+        <v>0.4242824993980279</v>
       </c>
     </row>
     <row r="261">
@@ -4803,65 +4803,65 @@
         </is>
       </c>
       <c r="B261" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C261" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E261" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F261" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262">
       <c r="B262" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C262" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C262" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D262" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E262" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F262" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="B263" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C263" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D263" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E263" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F263" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="B264" s="0" t="n">
-        <v>0.6638363643726606</v>
+        <v>0.09397639458315224</v>
       </c>
       <c r="C264" s="0" t="n">
-        <v>0.02460822949326115</v>
+        <v>0.4242824993980279</v>
       </c>
     </row>
     <row r="265">
@@ -4871,65 +4871,65 @@
         </is>
       </c>
       <c r="B265" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C265" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D265" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E265" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F265" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C266" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C266" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D266" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E266" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F266" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="B267" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C267" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D267" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E267" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F267" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="B268" s="0" t="n">
-        <v>0.6638363643726606</v>
+        <v>0.09397639458315224</v>
       </c>
       <c r="C268" s="0" t="n">
-        <v>0.02460822949326115</v>
+        <v>0.4242824993980279</v>
       </c>
     </row>
     <row r="269">
@@ -4939,65 +4939,65 @@
         </is>
       </c>
       <c r="B269" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C269" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D269" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E269" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="F269" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C270" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D270" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E270" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F270" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="B271" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C271" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D271" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E271" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F271" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="B272" s="0" t="n">
-        <v>0.6638363643726606</v>
+        <v>0.09248709412554508</v>
       </c>
       <c r="C272" s="0" t="n">
-        <v>0.02460822949326115</v>
+        <v>0.4227598575288017</v>
       </c>
     </row>
     <row r="273">
@@ -5007,65 +5007,65 @@
         </is>
       </c>
       <c r="B273" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C273" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D273" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E273" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F273" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C274" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C274" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D274" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E274" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F274" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="B275" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D275" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E275" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F275" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="B276" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.09248709412554508</v>
       </c>
       <c r="C276" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.4227598575288017</v>
       </c>
     </row>
     <row r="277">
@@ -5075,65 +5075,65 @@
         </is>
       </c>
       <c r="B277" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C277" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D277" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E277" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F277" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C278" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C278" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D278" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E278" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F278" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="B279" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D279" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E279" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F279" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="B280" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.09248709412554508</v>
       </c>
       <c r="C280" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.4227598575288017</v>
       </c>
     </row>
     <row r="281">
@@ -5143,37 +5143,37 @@
         </is>
       </c>
       <c r="B281" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C281" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D281" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E281" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F281" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C282" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D282" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E282" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F282" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -5182,26 +5182,26 @@
         <v>10</v>
       </c>
       <c r="C283" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D283" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E283" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F283" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="B284" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.08964505075026917</v>
       </c>
       <c r="C284" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.419807547525321</v>
       </c>
     </row>
     <row r="285">
@@ -5211,65 +5211,65 @@
         </is>
       </c>
       <c r="B285" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C285" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E285" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F285" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C286" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D286" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E286" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F286" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="B287" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C287" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E287" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F287" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="B288" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.08964505075026917</v>
       </c>
       <c r="C288" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.419807547525321</v>
       </c>
     </row>
     <row r="289">
@@ -5279,65 +5279,65 @@
         </is>
       </c>
       <c r="B289" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C289" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D289" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E289" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F289" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C290" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D290" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E290" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F290" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="B291" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C291" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D291" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E291" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F291" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="B292" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.08964505075026917</v>
       </c>
       <c r="C292" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.419807547525321</v>
       </c>
     </row>
     <row r="293">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B293" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C293" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D293" s="0" t="n">
         <v>0</v>
@@ -5359,53 +5359,53 @@
         <v>1500</v>
       </c>
       <c r="F293" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294">
       <c r="B294" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C294" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D294" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E294" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F294" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="B295" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C295" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D295" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E295" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F295" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="B296" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.08964505075026917</v>
       </c>
       <c r="C296" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.419807547525321</v>
       </c>
     </row>
     <row r="297">
@@ -5415,65 +5415,65 @@
         </is>
       </c>
       <c r="B297" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C297" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D297" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E297" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F297" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C298" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D298" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E298" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F298" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="B299" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C299" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D299" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E299" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F299" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="B300" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.08964505075026917</v>
       </c>
       <c r="C300" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.419807547525321</v>
       </c>
     </row>
     <row r="301">
@@ -5483,65 +5483,65 @@
         </is>
       </c>
       <c r="B301" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C301" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D301" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E301" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F301" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C302" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D302" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E302" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F302" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="B303" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C303" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D303" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E303" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F303" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="B304" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.08964505075026917</v>
       </c>
       <c r="C304" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.419807547525321</v>
       </c>
     </row>
     <row r="305">
@@ -5551,37 +5551,37 @@
         </is>
       </c>
       <c r="B305" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C305" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D305" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E305" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F305" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C306" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D306" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E306" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F306" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -5590,26 +5590,26 @@
         <v>10</v>
       </c>
       <c r="C307" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D307" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F307" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="B308" s="0" t="n">
-        <v>0.6286046483605525</v>
+        <v>0.08964505075026917</v>
       </c>
       <c r="C308" s="0" t="n">
-        <v>0.04423757159598551</v>
+        <v>0.419807547525321</v>
       </c>
     </row>
     <row r="309">
@@ -5619,65 +5619,65 @@
         </is>
       </c>
       <c r="B309" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C309" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D309" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E309" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F309" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C310" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D310" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E310" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F310" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="B311" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C311" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D311" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E311" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F311" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="B312" s="0" t="n">
-        <v>0.5716989649354127</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C312" s="0" t="n">
-        <v>0.02288955985091886</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="313">
@@ -5687,65 +5687,65 @@
         </is>
       </c>
       <c r="B313" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C313" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D313" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E313" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F313" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C314" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D314" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E314" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F314" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="B315" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C315" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D315" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E315" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F315" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="B316" s="0" t="n">
-        <v>0.5716989649354127</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C316" s="0" t="n">
-        <v>0.02288955985091886</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="317">
@@ -5755,33 +5755,33 @@
         </is>
       </c>
       <c r="B317" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C317" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D317" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E317" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F317" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C318" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D318" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E318" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F318" s="0" t="inlineStr">
         <is>
@@ -5791,16 +5791,16 @@
     </row>
     <row r="319">
       <c r="B319" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C319" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D319" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E319" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F319" s="0" t="inlineStr">
         <is>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="320">
       <c r="B320" s="0" t="n">
-        <v>0.3573597200281421</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C320" s="0" t="n">
-        <v>0.01773275157100852</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="321">
@@ -5823,33 +5823,33 @@
         </is>
       </c>
       <c r="B321" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C321" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D321" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E321" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F321" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C322" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D322" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E322" s="0" t="n">
         <v>500</v>
-      </c>
-      <c r="E322" s="0" t="n">
-        <v>650</v>
       </c>
       <c r="F322" s="0" t="inlineStr">
         <is>
@@ -5859,16 +5859,16 @@
     </row>
     <row r="323">
       <c r="B323" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C323" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D323" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E323" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F323" s="0" t="inlineStr">
         <is>
@@ -5878,10 +5878,10 @@
     </row>
     <row r="324">
       <c r="B324" s="0" t="n">
-        <v>0.3573597200281421</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C324" s="0" t="n">
-        <v>0.01773275157100852</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="325">
@@ -5891,33 +5891,33 @@
         </is>
       </c>
       <c r="B325" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C325" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D325" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F325" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C326" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D326" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" s="0" t="n">
         <v>500</v>
-      </c>
-      <c r="E326" s="0" t="n">
-        <v>650</v>
       </c>
       <c r="F326" s="0" t="inlineStr">
         <is>
@@ -5927,16 +5927,16 @@
     </row>
     <row r="327">
       <c r="B327" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C327" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D327" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E327" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F327" s="0" t="inlineStr">
         <is>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="328">
       <c r="B328" s="0" t="n">
-        <v>0.3573597200281421</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C328" s="0" t="n">
-        <v>0.01773275157100852</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="329">
@@ -5959,37 +5959,37 @@
         </is>
       </c>
       <c r="B329" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C329" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D329" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E329" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F329" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C330" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C330" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D330" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E330" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F330" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -6001,10 +6001,10 @@
         <v>130</v>
       </c>
       <c r="D331" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E331" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F331" s="0" t="inlineStr">
         <is>
@@ -6014,10 +6014,10 @@
     </row>
     <row r="332">
       <c r="B332" s="0" t="n">
-        <v>0.2741276805835979</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C332" s="0" t="n">
-        <v>0.03571793151146342</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="333">
@@ -6027,37 +6027,37 @@
         </is>
       </c>
       <c r="B333" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C333" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D333" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E333" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F333" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C334" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D334" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E334" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F334" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -6069,10 +6069,10 @@
         <v>130</v>
       </c>
       <c r="D335" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E335" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F335" s="0" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
     </row>
     <row r="336">
       <c r="B336" s="0" t="n">
-        <v>0.2741276805835979</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C336" s="0" t="n">
-        <v>0.03571793151146342</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="337">
@@ -6095,52 +6095,52 @@
         </is>
       </c>
       <c r="B337" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C337" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D337" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E337" s="0" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="F337" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C338" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D338" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F338" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="B339" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C339" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D339" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E339" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F339" s="0" t="inlineStr">
         <is>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="340">
       <c r="B340" s="0" t="n">
-        <v>0.2741276805835979</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C340" s="0" t="n">
-        <v>0.03571793151146342</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="341">
@@ -6163,37 +6163,37 @@
         </is>
       </c>
       <c r="B341" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C341" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D341" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E341" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F341" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C342" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C342" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D342" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E342" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F342" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
@@ -6205,10 +6205,10 @@
         <v>130</v>
       </c>
       <c r="D343" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F343" s="0" t="inlineStr">
         <is>
@@ -6218,10 +6218,10 @@
     </row>
     <row r="344">
       <c r="B344" s="0" t="n">
-        <v>0.2741276805835979</v>
+        <v>0.08179293055160641</v>
       </c>
       <c r="C344" s="0" t="n">
-        <v>0.03571793151146342</v>
+        <v>0.4149448339257663</v>
       </c>
     </row>
     <row r="345">
@@ -6231,52 +6231,52 @@
         </is>
       </c>
       <c r="B345" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C345" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D345" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E345" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F345" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C346" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D346" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E346" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F346" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="B347" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C347" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D347" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="E347" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F347" s="0" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="348">
       <c r="B348" s="0" t="n">
-        <v>0.2741276805835979</v>
+        <v>0.05936113137749671</v>
       </c>
       <c r="C348" s="0" t="n">
-        <v>0.03571793151146342</v>
+        <v>0.426200374042626</v>
       </c>
     </row>
     <row r="349">
@@ -6299,33 +6299,33 @@
         </is>
       </c>
       <c r="B349" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C349" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D349" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E349" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F349" s="0" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C350" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D350" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E350" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F350" s="0" t="inlineStr">
         <is>
@@ -6335,29 +6335,29 @@
     </row>
     <row r="351">
       <c r="B351" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C351" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D351" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E351" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F351" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="B352" s="0" t="n">
-        <v>0.2444253872090526</v>
+        <v>0.05882370482331423</v>
       </c>
       <c r="C352" s="0" t="n">
-        <v>0.00138720890505394</v>
+        <v>0.4168104990708791</v>
       </c>
     </row>
     <row r="353">
@@ -6367,33 +6367,33 @@
         </is>
       </c>
       <c r="B353" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C353" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D353" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E353" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F353" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C354" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D354" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E354" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F354" s="0" t="inlineStr">
         <is>
@@ -6403,29 +6403,29 @@
     </row>
     <row r="355">
       <c r="B355" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C355" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D355" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E355" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F355" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="B356" s="0" t="n">
-        <v>0.2444253872090526</v>
+        <v>0.04897879740377407</v>
       </c>
       <c r="C356" s="0" t="n">
-        <v>0.00138720890505394</v>
+        <v>0.4285675435309313</v>
       </c>
     </row>
     <row r="357">
@@ -6435,33 +6435,33 @@
         </is>
       </c>
       <c r="B357" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C357" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D357" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E357" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F357" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358">
       <c r="B358" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C358" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D358" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E358" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F358" s="0" t="inlineStr">
         <is>
@@ -6471,29 +6471,29 @@
     </row>
     <row r="359">
       <c r="B359" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C359" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D359" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E359" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F359" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="B360" s="0" t="n">
-        <v>0.2444253872090526</v>
+        <v>0.04897879740377407</v>
       </c>
       <c r="C360" s="0" t="n">
-        <v>0.00138720890505394</v>
+        <v>0.4285675435309313</v>
       </c>
     </row>
     <row r="361">
@@ -6503,33 +6503,33 @@
         </is>
       </c>
       <c r="B361" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C361" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D361" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E361" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F361" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C362" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E362" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F362" s="0" t="inlineStr">
         <is>
@@ -6539,29 +6539,29 @@
     </row>
     <row r="363">
       <c r="B363" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C363" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E363" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F363" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="B364" s="0" t="n">
-        <v>0.2444253872090526</v>
+        <v>0.04854395781173333</v>
       </c>
       <c r="C364" s="0" t="n">
-        <v>0.00138720890505394</v>
+        <v>0.4288318456335258</v>
       </c>
     </row>
     <row r="365">
@@ -6571,33 +6571,33 @@
         </is>
       </c>
       <c r="B365" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C365" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D365" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E365" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F365" s="0" t="n">
         <v>20</v>
-      </c>
-      <c r="D365" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E365" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F365" s="0" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C366" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D366" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E366" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F366" s="0" t="inlineStr">
         <is>
@@ -6607,16 +6607,16 @@
     </row>
     <row r="367">
       <c r="B367" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C367" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D367" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E367" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F367" s="0" t="inlineStr">
         <is>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="368">
       <c r="B368" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.04854395781173333</v>
       </c>
       <c r="C368" s="0" t="n">
-        <v>0</v>
+        <v>0.4288318456335258</v>
       </c>
     </row>
     <row r="369">
@@ -6639,19 +6639,19 @@
         </is>
       </c>
       <c r="B369" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C369" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D369" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E369" s="0" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="F369" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370">
@@ -6659,13 +6659,13 @@
         <v>10</v>
       </c>
       <c r="C370" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D370" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E370" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F370" s="0" t="inlineStr">
         <is>
@@ -6675,16 +6675,16 @@
     </row>
     <row r="371">
       <c r="B371" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C371" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D371" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E371" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F371" s="0" t="inlineStr">
         <is>
@@ -6694,10 +6694,10 @@
     </row>
     <row r="372">
       <c r="B372" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.04854395781173333</v>
       </c>
       <c r="C372" s="0" t="n">
-        <v>0</v>
+        <v>0.4288318456335258</v>
       </c>
     </row>
     <row r="373">
@@ -6707,19 +6707,19 @@
         </is>
       </c>
       <c r="B373" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C373" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D373" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E373" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F373" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374">
@@ -6727,13 +6727,13 @@
         <v>10</v>
       </c>
       <c r="C374" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D374" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E374" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F374" s="0" t="inlineStr">
         <is>
@@ -6743,16 +6743,16 @@
     </row>
     <row r="375">
       <c r="B375" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C375" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D375" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E375" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F375" s="0" t="inlineStr">
         <is>
@@ -6762,10 +6762,10 @@
     </row>
     <row r="376">
       <c r="B376" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.04854395781173333</v>
       </c>
       <c r="C376" s="0" t="n">
-        <v>0</v>
+        <v>0.4288318456335258</v>
       </c>
     </row>
     <row r="377">
@@ -6775,19 +6775,19 @@
         </is>
       </c>
       <c r="B377" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C377" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D377" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E377" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F377" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="378">
@@ -6795,13 +6795,13 @@
         <v>10</v>
       </c>
       <c r="C378" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D378" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E378" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F378" s="0" t="inlineStr">
         <is>
@@ -6811,16 +6811,16 @@
     </row>
     <row r="379">
       <c r="B379" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C379" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D379" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E379" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F379" s="0" t="inlineStr">
         <is>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="380">
       <c r="B380" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.04854395781173333</v>
       </c>
       <c r="C380" s="0" t="n">
-        <v>0</v>
+        <v>0.4288318456335258</v>
       </c>
     </row>
     <row r="381">
@@ -6843,19 +6843,19 @@
         </is>
       </c>
       <c r="B381" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C381" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D381" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E381" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F381" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382">
@@ -6863,13 +6863,13 @@
         <v>10</v>
       </c>
       <c r="C382" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D382" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E382" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F382" s="0" t="inlineStr">
         <is>
@@ -6882,13 +6882,13 @@
         <v>80</v>
       </c>
       <c r="C383" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D383" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E383" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F383" s="0" t="inlineStr">
         <is>
@@ -6898,10 +6898,10 @@
     </row>
     <row r="384">
       <c r="B384" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.04854395781173333</v>
       </c>
       <c r="C384" s="0" t="n">
-        <v>0</v>
+        <v>0.4288318456335258</v>
       </c>
     </row>
     <row r="385">
@@ -6911,33 +6911,33 @@
         </is>
       </c>
       <c r="B385" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C385" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D385" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E385" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F385" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C386" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E386" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F386" s="0" t="inlineStr">
         <is>
@@ -6947,16 +6947,16 @@
     </row>
     <row r="387">
       <c r="B387" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C387" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D387" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E387" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F387" s="0" t="inlineStr">
         <is>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="388">
       <c r="B388" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.03101466149698022</v>
       </c>
       <c r="C388" s="0" t="n">
-        <v>0</v>
+        <v>0.4329367556665695</v>
       </c>
     </row>
     <row r="389">
@@ -6979,33 +6979,33 @@
         </is>
       </c>
       <c r="B389" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C389" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D389" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E389" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F389" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="390">
       <c r="B390" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C390" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D390" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E390" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F390" s="0" t="inlineStr">
         <is>
@@ -7015,16 +7015,16 @@
     </row>
     <row r="391">
       <c r="B391" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C391" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D391" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E391" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F391" s="0" t="inlineStr">
         <is>
@@ -7034,10 +7034,10 @@
     </row>
     <row r="392">
       <c r="B392" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.03101466149698022</v>
       </c>
       <c r="C392" s="0" t="n">
-        <v>0</v>
+        <v>0.4329367556665695</v>
       </c>
     </row>
     <row r="393">
@@ -7047,19 +7047,19 @@
         </is>
       </c>
       <c r="B393" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C393" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D393" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E393" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F393" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="394">
@@ -7067,32 +7067,32 @@
         <v>0</v>
       </c>
       <c r="C394" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D394" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E394" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F394" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="B395" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C395" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D395" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E395" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F395" s="0" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
     </row>
     <row r="396">
       <c r="B396" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.02668828856388932</v>
       </c>
       <c r="C396" s="0" t="n">
-        <v>0</v>
+        <v>0.4441240181046482</v>
       </c>
     </row>
     <row r="397">
@@ -7115,52 +7115,52 @@
         </is>
       </c>
       <c r="B397" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C397" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D397" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E397" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F397" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="398">
       <c r="B398" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C398" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D398" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E398" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F398" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="B399" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C399" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D399" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E399" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F399" s="0" t="inlineStr">
         <is>
@@ -7170,10 +7170,10 @@
     </row>
     <row r="400">
       <c r="B400" s="0" t="n">
-        <v>0.1570269012688209</v>
+        <v>0.02668828856388932</v>
       </c>
       <c r="C400" s="0" t="n">
-        <v>6.207374104402267e-05</v>
+        <v>0.4441240181046482</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_integrate.xlsx
+++ b/output/ship_rule_integrate.xlsx
@@ -383,27 +383,27 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300</v>
@@ -419,16 +419,16 @@
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -438,10 +438,10 @@
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>0.3132083963428481</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.1254907390374396</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="5">
@@ -451,27 +451,27 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>300</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
@@ -506,10 +506,10 @@
     </row>
     <row r="8">
       <c r="B8" s="0" t="n">
-        <v>0.3132083963428481</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.1254907390374396</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="9">
@@ -519,27 +519,27 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>0.3132083963428481</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.1254907390374396</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="13">
@@ -587,30 +587,30 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>400</v>
@@ -623,16 +623,16 @@
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
@@ -642,10 +642,10 @@
     </row>
     <row r="16">
       <c r="B16" s="0" t="n">
-        <v>0.3132083963428481</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.1254907390374396</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="17">
@@ -655,27 +655,27 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>300</v>
@@ -691,16 +691,16 @@
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
@@ -710,10 +710,10 @@
     </row>
     <row r="20">
       <c r="B20" s="0" t="n">
-        <v>0.3132083963428481</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.1254907390374396</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="21">
@@ -723,27 +723,27 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>300</v>
@@ -759,16 +759,16 @@
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -778,10 +778,10 @@
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>0.3132083963428481</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.1254907390374396</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="25">
@@ -791,30 +791,30 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>400</v>
@@ -827,29 +827,29 @@
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="29">
@@ -859,30 +859,30 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>400</v>
@@ -895,29 +895,29 @@
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="33">
@@ -927,30 +927,30 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>400</v>
@@ -963,29 +963,29 @@
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="37">
@@ -995,30 +995,30 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>400</v>
@@ -1031,29 +1031,29 @@
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="41">
@@ -1063,30 +1063,30 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>400</v>
@@ -1099,29 +1099,29 @@
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="45">
@@ -1131,30 +1131,30 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>400</v>
@@ -1167,29 +1167,29 @@
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="49">
@@ -1199,30 +1199,30 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>400</v>
@@ -1235,29 +1235,29 @@
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3829048040850488</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2822141389664222</v>
       </c>
     </row>
     <row r="53">
@@ -1267,30 +1267,30 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>400</v>
@@ -1303,29 +1303,29 @@
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D55" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3656814361581135</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2412107237680675</v>
       </c>
     </row>
     <row r="57">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>400</v>
@@ -1371,29 +1371,29 @@
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D59" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3656814361581135</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2412107237680675</v>
       </c>
     </row>
     <row r="61">
@@ -1403,30 +1403,30 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>400</v>
@@ -1439,29 +1439,29 @@
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C63" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D63" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3656814361581135</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2412107237680675</v>
       </c>
     </row>
     <row r="65">
@@ -1471,30 +1471,30 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>400</v>
@@ -1507,29 +1507,29 @@
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C67" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D67" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="0" t="n">
-        <v>0.2779295351689871</v>
+        <v>0.3656814361581135</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.1037598837019083</v>
+        <v>0.2412107237680675</v>
       </c>
     </row>
     <row r="69">
@@ -1542,13 +1542,13 @@
         <v>90</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>10</v>
@@ -1556,16 +1556,16 @@
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
@@ -1575,29 +1575,29 @@
     </row>
     <row r="71">
       <c r="B71" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="0" t="n">
-        <v>0.2090644890121974</v>
+        <v>0.3532869056035429</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.2371518878093012</v>
+        <v>0.2192230379947116</v>
       </c>
     </row>
     <row r="73">
@@ -1607,33 +1607,33 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>120</v>
@@ -1652,7 +1652,7 @@
         <v>200</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="76">
       <c r="B76" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3532869056035429</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0</v>
+        <v>0.2192230379947116</v>
       </c>
     </row>
     <row r="77">
@@ -1678,30 +1678,30 @@
         <v>90</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
@@ -1714,13 +1714,13 @@
         <v>90</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="80">
       <c r="B80" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3532869056035429</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0</v>
+        <v>0.2192230379947116</v>
       </c>
     </row>
     <row r="81">
@@ -1746,30 +1746,30 @@
         <v>90</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
     </row>
     <row r="83">
       <c r="B83" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="84">
       <c r="B84" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3532869056035429</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0</v>
+        <v>0.2192230379947116</v>
       </c>
     </row>
     <row r="85">
@@ -1811,33 +1811,33 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
@@ -1847,29 +1847,29 @@
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3500053895676724</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0</v>
+        <v>0.22062027703944</v>
       </c>
     </row>
     <row r="89">
@@ -1879,33 +1879,33 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
@@ -1915,29 +1915,29 @@
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3500053895676724</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0</v>
+        <v>0.22062027703944</v>
       </c>
     </row>
     <row r="93">
@@ -1947,33 +1947,33 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
@@ -1983,29 +1983,29 @@
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3500053895676724</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0</v>
+        <v>0.22062027703944</v>
       </c>
     </row>
     <row r="97">
@@ -2015,33 +2015,33 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D97" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E97" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E97" s="0" t="n">
-        <v>1100</v>
-      </c>
       <c r="F97" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
@@ -2051,29 +2051,29 @@
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2554267658373439</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0</v>
+        <v>0.1242723384044085</v>
       </c>
     </row>
     <row r="101">
@@ -2083,33 +2083,33 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
@@ -2119,29 +2119,29 @@
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2411516647709008</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0</v>
+        <v>0.09650096739863434</v>
       </c>
     </row>
     <row r="105">
@@ -2151,33 +2151,33 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
@@ -2193,23 +2193,23 @@
         <v>150</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2411516647709008</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0</v>
+        <v>0.09650096739863434</v>
       </c>
     </row>
     <row r="109">
@@ -2219,19 +2219,19 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D109" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E109" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E109" s="0" t="n">
-        <v>1100</v>
-      </c>
       <c r="F109" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -2239,13 +2239,13 @@
         <v>10</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
@@ -2255,29 +2255,29 @@
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2411516647709008</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0</v>
+        <v>0.09650096739863434</v>
       </c>
     </row>
     <row r="113">
@@ -2287,33 +2287,33 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
@@ -2323,29 +2323,29 @@
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2328261634579575</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0</v>
+        <v>0.1334283402164166</v>
       </c>
     </row>
     <row r="117">
@@ -2355,33 +2355,33 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
@@ -2391,29 +2391,29 @@
     </row>
     <row r="119">
       <c r="B119" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2328261634579575</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0</v>
+        <v>0.1334283402164166</v>
       </c>
     </row>
     <row r="121">
@@ -2423,33 +2423,33 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
@@ -2459,29 +2459,29 @@
     </row>
     <row r="123">
       <c r="B123" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2314280002872033</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0</v>
+        <v>0.07955236516548017</v>
       </c>
     </row>
     <row r="125">
@@ -2491,33 +2491,33 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F126" s="0" t="inlineStr">
         <is>
@@ -2527,29 +2527,29 @@
     </row>
     <row r="127">
       <c r="B127" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2160397657809131</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0</v>
+        <v>0.09935823983059625</v>
       </c>
     </row>
     <row r="129">
@@ -2559,33 +2559,33 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F130" s="0" t="inlineStr">
         <is>
@@ -2595,29 +2595,29 @@
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2160397657809131</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0</v>
+        <v>0.09935823983059625</v>
       </c>
     </row>
     <row r="133">
@@ -2627,33 +2627,33 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F134" s="0" t="inlineStr">
         <is>
@@ -2663,29 +2663,29 @@
     </row>
     <row r="135">
       <c r="B135" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2160397657809131</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0</v>
+        <v>0.09935823983059625</v>
       </c>
     </row>
     <row r="137">
@@ -2695,33 +2695,33 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
@@ -2731,29 +2731,29 @@
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2160397657809131</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0</v>
+        <v>0.09935823983059625</v>
       </c>
     </row>
     <row r="141">
@@ -2763,33 +2763,33 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
@@ -2799,29 +2799,29 @@
     </row>
     <row r="143">
       <c r="B143" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="B144" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2160397657809131</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0</v>
+        <v>0.09935823983059625</v>
       </c>
     </row>
     <row r="145">
@@ -2837,27 +2837,27 @@
         <v>140</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
@@ -2867,29 +2867,29 @@
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="B148" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.2160397657809131</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0</v>
+        <v>0.09935823983059625</v>
       </c>
     </row>
     <row r="149">
@@ -2899,19 +2899,19 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -2919,13 +2919,13 @@
         <v>20</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F150" s="0" t="inlineStr">
         <is>
@@ -2935,20 +2935,20 @@
     </row>
     <row r="151">
       <c r="B151" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
@@ -2967,19 +2967,19 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154">
@@ -2987,13 +2987,13 @@
         <v>20</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="155">
       <c r="B155" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>120</v>
@@ -3012,11 +3012,11 @@
         <v>200</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
@@ -3035,19 +3035,19 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158">
@@ -3055,13 +3055,13 @@
         <v>10</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F158" s="0" t="inlineStr">
         <is>
@@ -3071,16 +3071,16 @@
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
@@ -3103,33 +3103,33 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D161" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E161" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E161" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F161" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F162" s="0" t="inlineStr">
         <is>
@@ -3139,20 +3139,20 @@
     </row>
     <row r="163">
       <c r="B163" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
@@ -3171,19 +3171,19 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
@@ -3191,13 +3191,13 @@
         <v>20</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="F166" s="0" t="inlineStr">
         <is>
@@ -3207,20 +3207,20 @@
     </row>
     <row r="167">
       <c r="B167" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
@@ -3239,30 +3239,30 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>500</v>
@@ -3275,20 +3275,20 @@
     </row>
     <row r="171">
       <c r="B171" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
@@ -3307,33 +3307,33 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D173" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E173" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E173" s="0" t="n">
-        <v>1100</v>
-      </c>
       <c r="F173" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F174" s="0" t="inlineStr">
         <is>
@@ -3343,20 +3343,20 @@
     </row>
     <row r="175">
       <c r="B175" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
@@ -3375,33 +3375,33 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F178" s="0" t="inlineStr">
         <is>
@@ -3411,20 +3411,20 @@
     </row>
     <row r="179">
       <c r="B179" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
@@ -3443,33 +3443,33 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182">
       <c r="B182" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F182" s="0" t="inlineStr">
         <is>
@@ -3482,17 +3482,17 @@
         <v>70</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -3514,30 +3514,30 @@
         <v>50</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D185" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E185" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E185" s="0" t="n">
-        <v>1100</v>
-      </c>
       <c r="F185" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F186" s="0" t="inlineStr">
         <is>
@@ -3547,20 +3547,20 @@
     </row>
     <row r="187">
       <c r="B187" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
@@ -3599,13 +3599,13 @@
         <v>20</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F190" s="0" t="inlineStr">
         <is>
@@ -3615,20 +3615,20 @@
     </row>
     <row r="191">
       <c r="B191" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
@@ -3647,16 +3647,16 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>17</v>
@@ -3667,13 +3667,13 @@
         <v>20</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
@@ -3683,20 +3683,20 @@
     </row>
     <row r="195">
       <c r="B195" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
@@ -3715,30 +3715,30 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>500</v>
@@ -3751,20 +3751,20 @@
     </row>
     <row r="199">
       <c r="B199" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
@@ -3783,33 +3783,33 @@
         </is>
       </c>
       <c r="B201" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F202" s="0" t="inlineStr">
         <is>
@@ -3819,20 +3819,20 @@
     </row>
     <row r="203">
       <c r="B203" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F203" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -3851,33 +3851,33 @@
         </is>
       </c>
       <c r="B205" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F206" s="0" t="inlineStr">
         <is>
@@ -3887,20 +3887,20 @@
     </row>
     <row r="207">
       <c r="B207" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F207" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
@@ -3919,19 +3919,19 @@
         </is>
       </c>
       <c r="B209" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
@@ -3939,13 +3939,13 @@
         <v>10</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F210" s="0" t="inlineStr">
         <is>
@@ -3955,16 +3955,16 @@
     </row>
     <row r="211">
       <c r="B211" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F211" s="0" t="inlineStr">
         <is>
@@ -3987,33 +3987,33 @@
         </is>
       </c>
       <c r="B213" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F214" s="0" t="inlineStr">
         <is>
@@ -4023,20 +4023,20 @@
     </row>
     <row r="215">
       <c r="B215" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F215" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
@@ -4055,33 +4055,33 @@
         </is>
       </c>
       <c r="B217" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F218" s="0" t="inlineStr">
         <is>
@@ -4091,16 +4091,16 @@
     </row>
     <row r="219">
       <c r="B219" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F219" s="0" t="inlineStr">
         <is>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="220">
       <c r="B220" s="0" t="n">
-        <v>0.163669066350086</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>0.2536646436199578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -4123,33 +4123,33 @@
         </is>
       </c>
       <c r="B221" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F222" s="0" t="inlineStr">
         <is>
@@ -4159,29 +4159,29 @@
     </row>
     <row r="223">
       <c r="B223" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D223" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E223" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E223" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F223" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="B224" s="0" t="n">
-        <v>0.1017411931671016</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>0.4252195325781585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -4191,33 +4191,33 @@
         </is>
       </c>
       <c r="B225" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F226" s="0" t="inlineStr">
         <is>
@@ -4227,29 +4227,29 @@
     </row>
     <row r="227">
       <c r="B227" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F227" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="B228" s="0" t="n">
-        <v>0.1017411931671016</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C228" s="0" t="n">
-        <v>0.4252195325781585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -4259,33 +4259,33 @@
         </is>
       </c>
       <c r="B229" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C229" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F230" s="0" t="inlineStr">
         <is>
@@ -4295,29 +4295,29 @@
     </row>
     <row r="231">
       <c r="B231" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D231" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E231" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E231" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F231" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="B232" s="0" t="n">
-        <v>0.1017411931671016</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C232" s="0" t="n">
-        <v>0.4252195325781585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4327,33 +4327,33 @@
         </is>
       </c>
       <c r="B233" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F234" s="0" t="inlineStr">
         <is>
@@ -4363,29 +4363,29 @@
     </row>
     <row r="235">
       <c r="B235" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C235" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D235" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E235" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="E235" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F235" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="B236" s="0" t="n">
-        <v>0.1017411931671016</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C236" s="0" t="n">
-        <v>0.4252195325781585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4395,33 +4395,33 @@
         </is>
       </c>
       <c r="B237" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F237" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E238" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F238" s="0" t="inlineStr">
         <is>
@@ -4431,29 +4431,29 @@
     </row>
     <row r="239">
       <c r="B239" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D239" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E239" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F239" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="B240" s="0" t="n">
-        <v>0.09987850345512676</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C240" s="0" t="n">
-        <v>0.4234156676726528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4466,30 +4466,30 @@
         <v>50</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C242" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D242" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E242" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F242" s="0" t="inlineStr">
         <is>
@@ -4499,16 +4499,16 @@
     </row>
     <row r="243">
       <c r="B243" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="C243" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D243" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E243" s="0" t="n">
         <v>650</v>
-      </c>
-      <c r="E243" s="0" t="n">
-        <v>1300</v>
       </c>
       <c r="F243" s="0" t="inlineStr">
         <is>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="244">
       <c r="B244" s="0" t="n">
-        <v>0.09987850345512676</v>
+        <v>0.2071801337523511</v>
       </c>
       <c r="C244" s="0" t="n">
-        <v>0.4234156676726528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -4531,19 +4531,19 @@
         </is>
       </c>
       <c r="B245" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C245" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E245" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F245" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
@@ -4551,13 +4551,13 @@
         <v>50</v>
       </c>
       <c r="C246" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E246" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F246" s="0" t="inlineStr">
         <is>
@@ -4567,29 +4567,29 @@
     </row>
     <row r="247">
       <c r="B247" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D247" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E247" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F247" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="B248" s="0" t="n">
-        <v>0.09987850345512676</v>
+        <v>0.2032411061058762</v>
       </c>
       <c r="C248" s="0" t="n">
-        <v>0.4234156676726528</v>
+        <v>0.08651150191216411</v>
       </c>
     </row>
     <row r="249">
@@ -4599,33 +4599,33 @@
         </is>
       </c>
       <c r="B249" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C249" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E249" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F249" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C250" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E250" s="0" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F250" s="0" t="inlineStr">
         <is>
@@ -4635,29 +4635,29 @@
     </row>
     <row r="251">
       <c r="B251" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C251" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E251" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F251" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="B252" s="0" t="n">
-        <v>0.09412115500696289</v>
+        <v>0.2032411061058762</v>
       </c>
       <c r="C252" s="0" t="n">
-        <v>0.4244217396832697</v>
+        <v>0.08651150191216411</v>
       </c>
     </row>
     <row r="253">
@@ -4667,33 +4667,33 @@
         </is>
       </c>
       <c r="B253" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C253" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E253" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F253" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C254" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E254" s="0" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F254" s="0" t="inlineStr">
         <is>
@@ -4703,29 +4703,29 @@
     </row>
     <row r="255">
       <c r="B255" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C255" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D255" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E255" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F255" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="B256" s="0" t="n">
-        <v>0.09412115500696289</v>
+        <v>0.2032411061058762</v>
       </c>
       <c r="C256" s="0" t="n">
-        <v>0.4244217396832697</v>
+        <v>0.08651150191216411</v>
       </c>
     </row>
     <row r="257">
@@ -4735,16 +4735,16 @@
         </is>
       </c>
       <c r="B257" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C257" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D257" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E257" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F257" s="0" t="n">
         <v>24</v>
@@ -4752,16 +4752,16 @@
     </row>
     <row r="258">
       <c r="B258" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C258" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D258" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E258" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F258" s="0" t="inlineStr">
         <is>
@@ -4771,16 +4771,16 @@
     </row>
     <row r="259">
       <c r="B259" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C259" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D259" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E259" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F259" s="0" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
     </row>
     <row r="260">
       <c r="B260" s="0" t="n">
-        <v>0.09397639458315224</v>
+        <v>0.1982262586216143</v>
       </c>
       <c r="C260" s="0" t="n">
-        <v>0.4242824993980279</v>
+        <v>0.2010080415737545</v>
       </c>
     </row>
     <row r="261">
@@ -4803,16 +4803,16 @@
         </is>
       </c>
       <c r="B261" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C261" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E261" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F261" s="0" t="n">
         <v>24</v>
@@ -4820,16 +4820,16 @@
     </row>
     <row r="262">
       <c r="B262" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C262" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D262" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E262" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F262" s="0" t="inlineStr">
         <is>
@@ -4839,16 +4839,16 @@
     </row>
     <row r="263">
       <c r="B263" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C263" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D263" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E263" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F263" s="0" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
     </row>
     <row r="264">
       <c r="B264" s="0" t="n">
-        <v>0.09397639458315224</v>
+        <v>0.1982262586216143</v>
       </c>
       <c r="C264" s="0" t="n">
-        <v>0.4242824993980279</v>
+        <v>0.2010080415737545</v>
       </c>
     </row>
     <row r="265">
@@ -4871,24 +4871,24 @@
         </is>
       </c>
       <c r="B265" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D265" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E265" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F265" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>80</v>
@@ -4897,7 +4897,7 @@
         <v>300</v>
       </c>
       <c r="E266" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F266" s="0" t="inlineStr">
         <is>
@@ -4907,16 +4907,16 @@
     </row>
     <row r="267">
       <c r="B267" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C267" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D267" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E267" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F267" s="0" t="inlineStr">
         <is>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="268">
       <c r="B268" s="0" t="n">
-        <v>0.09397639458315224</v>
+        <v>0.1905881605100423</v>
       </c>
       <c r="C268" s="0" t="n">
-        <v>0.4242824993980279</v>
+        <v>0.06710677481670677</v>
       </c>
     </row>
     <row r="269">
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="B269" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>140</v>
@@ -4948,24 +4948,24 @@
         <v>200</v>
       </c>
       <c r="E269" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F269" s="0" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C270" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D270" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E270" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F270" s="0" t="inlineStr">
         <is>
@@ -4975,13 +4975,13 @@
     </row>
     <row r="271">
       <c r="B271" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C271" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D271" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E271" s="0" t="n">
         <v>1000</v>
@@ -4994,10 +4994,10 @@
     </row>
     <row r="272">
       <c r="B272" s="0" t="n">
-        <v>0.09248709412554508</v>
+        <v>0.1901500826573375</v>
       </c>
       <c r="C272" s="0" t="n">
-        <v>0.4227598575288017</v>
+        <v>0.06024946353178764</v>
       </c>
     </row>
     <row r="273">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B273" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>140</v>
@@ -5016,24 +5016,24 @@
         <v>200</v>
       </c>
       <c r="E273" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F273" s="0" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C274" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D274" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E274" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F274" s="0" t="inlineStr">
         <is>
@@ -5043,13 +5043,13 @@
     </row>
     <row r="275">
       <c r="B275" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C275" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D275" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E275" s="0" t="n">
         <v>1000</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="276">
       <c r="B276" s="0" t="n">
-        <v>0.09248709412554508</v>
+        <v>0.1901500826573375</v>
       </c>
       <c r="C276" s="0" t="n">
-        <v>0.4227598575288017</v>
+        <v>0.06024946353178764</v>
       </c>
     </row>
     <row r="277">
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="B277" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>140</v>
@@ -5084,24 +5084,24 @@
         <v>200</v>
       </c>
       <c r="E277" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F277" s="0" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C278" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D278" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E278" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F278" s="0" t="inlineStr">
         <is>
@@ -5111,13 +5111,13 @@
     </row>
     <row r="279">
       <c r="B279" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C279" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D279" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E279" s="0" t="n">
         <v>1000</v>
@@ -5130,10 +5130,10 @@
     </row>
     <row r="280">
       <c r="B280" s="0" t="n">
-        <v>0.09248709412554508</v>
+        <v>0.1901500826573375</v>
       </c>
       <c r="C280" s="0" t="n">
-        <v>0.4227598575288017</v>
+        <v>0.06024946353178764</v>
       </c>
     </row>
     <row r="281">
@@ -5143,33 +5143,33 @@
         </is>
       </c>
       <c r="B281" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D281" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E281" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F281" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C282" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D282" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E282" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F282" s="0" t="inlineStr">
         <is>
@@ -5179,29 +5179,29 @@
     </row>
     <row r="283">
       <c r="B283" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C283" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D283" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E283" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F283" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="B284" s="0" t="n">
-        <v>0.08964505075026917</v>
+        <v>0.1901500826573375</v>
       </c>
       <c r="C284" s="0" t="n">
-        <v>0.419807547525321</v>
+        <v>0.06024946353178764</v>
       </c>
     </row>
     <row r="285">
@@ -5211,33 +5211,33 @@
         </is>
       </c>
       <c r="B285" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C285" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E285" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F285" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C286" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D286" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E286" s="0" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="F286" s="0" t="inlineStr">
         <is>
@@ -5247,29 +5247,29 @@
     </row>
     <row r="287">
       <c r="B287" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C287" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E287" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F287" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="B288" s="0" t="n">
-        <v>0.08964505075026917</v>
+        <v>0.1901500826573375</v>
       </c>
       <c r="C288" s="0" t="n">
-        <v>0.419807547525321</v>
+        <v>0.06024946353178764</v>
       </c>
     </row>
     <row r="289">
@@ -5285,27 +5285,27 @@
         <v>140</v>
       </c>
       <c r="D289" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E289" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F289" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C290" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D290" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E290" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F290" s="0" t="inlineStr">
         <is>
@@ -5315,16 +5315,16 @@
     </row>
     <row r="291">
       <c r="B291" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C291" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D291" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E291" s="0" t="n">
         <v>600</v>
-      </c>
-      <c r="E291" s="0" t="n">
-        <v>1000</v>
       </c>
       <c r="F291" s="0" t="inlineStr">
         <is>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="292">
       <c r="B292" s="0" t="n">
-        <v>0.08964505075026917</v>
+        <v>0.1850155822000992</v>
       </c>
       <c r="C292" s="0" t="n">
-        <v>0.419807547525321</v>
+        <v>0.1043464163262111</v>
       </c>
     </row>
     <row r="293">
@@ -5353,27 +5353,27 @@
         <v>140</v>
       </c>
       <c r="D293" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E293" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F293" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="294">
       <c r="B294" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C294" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D294" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E294" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F294" s="0" t="inlineStr">
         <is>
@@ -5383,16 +5383,16 @@
     </row>
     <row r="295">
       <c r="B295" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C295" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D295" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E295" s="0" t="n">
         <v>600</v>
-      </c>
-      <c r="E295" s="0" t="n">
-        <v>1000</v>
       </c>
       <c r="F295" s="0" t="inlineStr">
         <is>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="296">
       <c r="B296" s="0" t="n">
-        <v>0.08964505075026917</v>
+        <v>0.1850155822000992</v>
       </c>
       <c r="C296" s="0" t="n">
-        <v>0.419807547525321</v>
+        <v>0.1043464163262111</v>
       </c>
     </row>
     <row r="297">
@@ -5418,30 +5418,30 @@
         <v>70</v>
       </c>
       <c r="C297" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D297" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E297" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F297" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C298" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D298" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E298" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F298" s="0" t="inlineStr">
         <is>
@@ -5451,16 +5451,16 @@
     </row>
     <row r="299">
       <c r="B299" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C299" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D299" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E299" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F299" s="0" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
     </row>
     <row r="300">
       <c r="B300" s="0" t="n">
-        <v>0.08964505075026917</v>
+        <v>0.1825119062154465</v>
       </c>
       <c r="C300" s="0" t="n">
-        <v>0.419807547525321</v>
+        <v>0.05873089874553365</v>
       </c>
     </row>
     <row r="301">
@@ -5489,27 +5489,27 @@
         <v>140</v>
       </c>
       <c r="D301" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E301" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F301" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C302" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D302" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E302" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F302" s="0" t="inlineStr">
         <is>
@@ -5519,16 +5519,16 @@
     </row>
     <row r="303">
       <c r="B303" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C303" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D303" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E303" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F303" s="0" t="inlineStr">
         <is>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="304">
       <c r="B304" s="0" t="n">
-        <v>0.08964505075026917</v>
+        <v>0.1825119062154465</v>
       </c>
       <c r="C304" s="0" t="n">
-        <v>0.419807547525321</v>
+        <v>0.05873089874553365</v>
       </c>
     </row>
     <row r="305">
@@ -5551,33 +5551,33 @@
         </is>
       </c>
       <c r="B305" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C305" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D305" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E305" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F305" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C306" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D306" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E306" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F306" s="0" t="inlineStr">
         <is>
@@ -5590,13 +5590,13 @@
         <v>10</v>
       </c>
       <c r="C307" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D307" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F307" s="0" t="inlineStr">
         <is>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="308">
       <c r="B308" s="0" t="n">
-        <v>0.08964505075026917</v>
+        <v>0.1825119062154465</v>
       </c>
       <c r="C308" s="0" t="n">
-        <v>0.419807547525321</v>
+        <v>0.05873089874553365</v>
       </c>
     </row>
     <row r="309">
@@ -5619,33 +5619,33 @@
         </is>
       </c>
       <c r="B309" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C309" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D309" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E309" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F309" s="0" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C310" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D310" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E310" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F310" s="0" t="inlineStr">
         <is>
@@ -5655,29 +5655,29 @@
     </row>
     <row r="311">
       <c r="B311" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C311" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D311" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E311" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F311" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="B312" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.1825119062154465</v>
       </c>
       <c r="C312" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.05873089874553365</v>
       </c>
     </row>
     <row r="313">
@@ -5687,30 +5687,30 @@
         </is>
       </c>
       <c r="B313" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C313" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D313" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E313" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F313" s="0" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C314" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D314" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E314" s="0" t="n">
         <v>500</v>
@@ -5723,29 +5723,29 @@
     </row>
     <row r="315">
       <c r="B315" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C315" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D315" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E315" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F315" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="B316" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.1825119062154465</v>
       </c>
       <c r="C316" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.05873089874553365</v>
       </c>
     </row>
     <row r="317">
@@ -5755,33 +5755,33 @@
         </is>
       </c>
       <c r="B317" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C317" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D317" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E317" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F317" s="0" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C318" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D318" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E318" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F318" s="0" t="inlineStr">
         <is>
@@ -5791,29 +5791,29 @@
     </row>
     <row r="319">
       <c r="B319" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C319" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D319" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E319" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F319" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="B320" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.1825119062154465</v>
       </c>
       <c r="C320" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.05873089874553365</v>
       </c>
     </row>
     <row r="321">
@@ -5823,33 +5823,33 @@
         </is>
       </c>
       <c r="B321" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C321" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D321" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E321" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F321" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C322" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D322" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E322" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F322" s="0" t="inlineStr">
         <is>
@@ -5859,29 +5859,29 @@
     </row>
     <row r="323">
       <c r="B323" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C323" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D323" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E323" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F323" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="B324" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.1825119062154465</v>
       </c>
       <c r="C324" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.05873089874553365</v>
       </c>
     </row>
     <row r="325">
@@ -5891,33 +5891,33 @@
         </is>
       </c>
       <c r="B325" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C325" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D325" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F325" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C326" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D326" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E326" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F326" s="0" t="inlineStr">
         <is>
@@ -5927,29 +5927,29 @@
     </row>
     <row r="327">
       <c r="B327" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C327" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D327" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E327" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F327" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="B328" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.1825119062154465</v>
       </c>
       <c r="C328" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.05873089874553365</v>
       </c>
     </row>
     <row r="329">
@@ -5959,33 +5959,33 @@
         </is>
       </c>
       <c r="B329" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C329" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D329" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E329" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F329" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C330" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D330" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E330" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F330" s="0" t="inlineStr">
         <is>
@@ -5995,29 +5995,29 @@
     </row>
     <row r="331">
       <c r="B331" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C331" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D331" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E331" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="E331" s="0" t="n">
-        <v>1100</v>
-      </c>
       <c r="F331" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="B332" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.167949539824851</v>
       </c>
       <c r="C332" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.03464154498130274</v>
       </c>
     </row>
     <row r="333">
@@ -6030,30 +6030,30 @@
         <v>60</v>
       </c>
       <c r="C333" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D333" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E333" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F333" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C334" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D334" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E334" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F334" s="0" t="inlineStr">
         <is>
@@ -6063,29 +6063,29 @@
     </row>
     <row r="335">
       <c r="B335" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C335" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D335" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E335" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F335" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="B336" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.162346394442842</v>
       </c>
       <c r="C336" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.1275061210810311</v>
       </c>
     </row>
     <row r="337">
@@ -6095,33 +6095,33 @@
         </is>
       </c>
       <c r="B337" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C337" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D337" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E337" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F337" s="0" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C338" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D338" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F338" s="0" t="inlineStr">
         <is>
@@ -6131,29 +6131,29 @@
     </row>
     <row r="339">
       <c r="B339" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C339" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D339" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E339" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F339" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="B340" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.1620692087251635</v>
       </c>
       <c r="C340" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.07653964369833395</v>
       </c>
     </row>
     <row r="341">
@@ -6163,33 +6163,33 @@
         </is>
       </c>
       <c r="B341" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C341" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D341" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E341" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F341" s="0" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C342" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D342" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E342" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F342" s="0" t="inlineStr">
         <is>
@@ -6199,29 +6199,29 @@
     </row>
     <row r="343">
       <c r="B343" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C343" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D343" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F343" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="B344" s="0" t="n">
-        <v>0.08179293055160641</v>
+        <v>0.1592612554898485</v>
       </c>
       <c r="C344" s="0" t="n">
-        <v>0.4149448339257663</v>
+        <v>0.06681604073129545</v>
       </c>
     </row>
     <row r="345">
@@ -6231,33 +6231,33 @@
         </is>
       </c>
       <c r="B345" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D345" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E345" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="E345" s="0" t="n">
-        <v>1100</v>
-      </c>
       <c r="F345" s="0" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C346" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D346" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E346" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F346" s="0" t="inlineStr">
         <is>
@@ -6267,29 +6267,29 @@
     </row>
     <row r="347">
       <c r="B347" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D347" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E347" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F347" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="B348" s="0" t="n">
-        <v>0.05936113137749671</v>
+        <v>0.1592612554898485</v>
       </c>
       <c r="C348" s="0" t="n">
-        <v>0.426200374042626</v>
+        <v>0.06681604073129545</v>
       </c>
     </row>
     <row r="349">
@@ -6299,33 +6299,33 @@
         </is>
       </c>
       <c r="B349" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C349" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D349" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E349" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F349" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C350" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D350" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E350" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F350" s="0" t="inlineStr">
         <is>
@@ -6335,29 +6335,29 @@
     </row>
     <row r="351">
       <c r="B351" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C351" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D351" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E351" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F351" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="B352" s="0" t="n">
-        <v>0.05882370482331423</v>
+        <v>0.1592612554898485</v>
       </c>
       <c r="C352" s="0" t="n">
-        <v>0.4168104990708791</v>
+        <v>0.06681604073129545</v>
       </c>
     </row>
     <row r="353">
@@ -6367,33 +6367,33 @@
         </is>
       </c>
       <c r="B353" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C353" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D353" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E353" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F353" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C354" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D354" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E354" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F354" s="0" t="inlineStr">
         <is>
@@ -6403,29 +6403,29 @@
     </row>
     <row r="355">
       <c r="B355" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C355" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D355" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E355" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F355" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="B356" s="0" t="n">
-        <v>0.04897879740377407</v>
+        <v>0.1592612554898485</v>
       </c>
       <c r="C356" s="0" t="n">
-        <v>0.4285675435309313</v>
+        <v>0.06681604073129545</v>
       </c>
     </row>
     <row r="357">
@@ -6435,33 +6435,33 @@
         </is>
       </c>
       <c r="B357" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C357" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D357" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E357" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F357" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="358">
       <c r="B358" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C358" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D358" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E358" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F358" s="0" t="inlineStr">
         <is>
@@ -6471,29 +6471,29 @@
     </row>
     <row r="359">
       <c r="B359" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C359" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D359" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E359" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F359" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="B360" s="0" t="n">
-        <v>0.04897879740377407</v>
+        <v>0.1592612554898485</v>
       </c>
       <c r="C360" s="0" t="n">
-        <v>0.4285675435309313</v>
+        <v>0.06681604073129545</v>
       </c>
     </row>
     <row r="361">
@@ -6503,33 +6503,33 @@
         </is>
       </c>
       <c r="B361" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C361" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D361" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E361" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F361" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C362" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E362" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F362" s="0" t="inlineStr">
         <is>
@@ -6539,29 +6539,29 @@
     </row>
     <row r="363">
       <c r="B363" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C363" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E363" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F363" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="B364" s="0" t="n">
-        <v>0.04854395781173333</v>
+        <v>0.1518492477090514</v>
       </c>
       <c r="C364" s="0" t="n">
-        <v>0.4288318456335258</v>
+        <v>0.07376631408644441</v>
       </c>
     </row>
     <row r="365">
@@ -6571,19 +6571,19 @@
         </is>
       </c>
       <c r="B365" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C365" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D365" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E365" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F365" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366">
@@ -6591,13 +6591,13 @@
         <v>10</v>
       </c>
       <c r="C366" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D366" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E366" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F366" s="0" t="inlineStr">
         <is>
@@ -6610,26 +6610,26 @@
         <v>50</v>
       </c>
       <c r="C367" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D367" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E367" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F367" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="B368" s="0" t="n">
-        <v>0.04854395781173333</v>
+        <v>0.1481761493147958</v>
       </c>
       <c r="C368" s="0" t="n">
-        <v>0.4288318456335258</v>
+        <v>0.2368369796364108</v>
       </c>
     </row>
     <row r="369">
@@ -6639,19 +6639,19 @@
         </is>
       </c>
       <c r="B369" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C369" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D369" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E369" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F369" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="370">
@@ -6659,13 +6659,13 @@
         <v>10</v>
       </c>
       <c r="C370" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D370" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E370" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F370" s="0" t="inlineStr">
         <is>
@@ -6678,26 +6678,26 @@
         <v>50</v>
       </c>
       <c r="C371" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D371" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E371" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F371" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="B372" s="0" t="n">
-        <v>0.04854395781173333</v>
+        <v>0.1481761493147958</v>
       </c>
       <c r="C372" s="0" t="n">
-        <v>0.4288318456335258</v>
+        <v>0.2368369796364108</v>
       </c>
     </row>
     <row r="373">
@@ -6707,33 +6707,33 @@
         </is>
       </c>
       <c r="B373" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C373" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D373" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E373" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F373" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C374" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D374" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E374" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F374" s="0" t="inlineStr">
         <is>
@@ -6743,13 +6743,13 @@
     </row>
     <row r="375">
       <c r="B375" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C375" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D375" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E375" s="0" t="n">
         <v>1000</v>
@@ -6762,10 +6762,10 @@
     </row>
     <row r="376">
       <c r="B376" s="0" t="n">
-        <v>0.04854395781173333</v>
+        <v>0.1352568318721562</v>
       </c>
       <c r="C376" s="0" t="n">
-        <v>0.4288318456335258</v>
+        <v>0.09924871866274601</v>
       </c>
     </row>
     <row r="377">
@@ -6775,33 +6775,33 @@
         </is>
       </c>
       <c r="B377" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C377" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D377" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E377" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F377" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C378" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D378" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E378" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F378" s="0" t="inlineStr">
         <is>
@@ -6811,13 +6811,13 @@
     </row>
     <row r="379">
       <c r="B379" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C379" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D379" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E379" s="0" t="n">
         <v>1000</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="380">
       <c r="B380" s="0" t="n">
-        <v>0.04854395781173333</v>
+        <v>0.1352568318721562</v>
       </c>
       <c r="C380" s="0" t="n">
-        <v>0.4288318456335258</v>
+        <v>0.09924871866274601</v>
       </c>
     </row>
     <row r="381">
@@ -6843,33 +6843,33 @@
         </is>
       </c>
       <c r="B381" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C381" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D381" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E381" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F381" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C382" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D382" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E382" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F382" s="0" t="inlineStr">
         <is>
@@ -6879,16 +6879,16 @@
     </row>
     <row r="383">
       <c r="B383" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C383" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D383" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E383" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="F383" s="0" t="inlineStr">
         <is>
@@ -6898,10 +6898,10 @@
     </row>
     <row r="384">
       <c r="B384" s="0" t="n">
-        <v>0.04854395781173333</v>
+        <v>0.09212672338315404</v>
       </c>
       <c r="C384" s="0" t="n">
-        <v>0.4288318456335258</v>
+        <v>0.03146326828802307</v>
       </c>
     </row>
     <row r="385">
@@ -6911,33 +6911,33 @@
         </is>
       </c>
       <c r="B385" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C385" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D385" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E385" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F385" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C386" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E386" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F386" s="0" t="inlineStr">
         <is>
@@ -6947,16 +6947,16 @@
     </row>
     <row r="387">
       <c r="B387" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C387" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D387" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E387" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="F387" s="0" t="inlineStr">
         <is>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="388">
       <c r="B388" s="0" t="n">
-        <v>0.03101466149698022</v>
+        <v>0.09212672338315404</v>
       </c>
       <c r="C388" s="0" t="n">
-        <v>0.4329367556665695</v>
+        <v>0.03146326828802307</v>
       </c>
     </row>
     <row r="389">
@@ -6979,33 +6979,33 @@
         </is>
       </c>
       <c r="B389" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C389" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D389" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E389" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F389" s="0" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
       <c r="B390" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C390" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D390" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E390" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F390" s="0" t="inlineStr">
         <is>
@@ -7015,16 +7015,16 @@
     </row>
     <row r="391">
       <c r="B391" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C391" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D391" s="0" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E391" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F391" s="0" t="inlineStr">
         <is>
@@ -7034,10 +7034,10 @@
     </row>
     <row r="392">
       <c r="B392" s="0" t="n">
-        <v>0.03101466149698022</v>
+        <v>-0.06659791804145168</v>
       </c>
       <c r="C392" s="0" t="n">
-        <v>0.4329367556665695</v>
+        <v>0.05402681992730585</v>
       </c>
     </row>
     <row r="393">
@@ -7047,49 +7047,49 @@
         </is>
       </c>
       <c r="B393" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C393" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D393" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E393" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F393" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C394" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D394" s="0" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E394" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F394" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="B395" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C395" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D395" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E395" s="0" t="n">
         <v>1100</v>
@@ -7102,10 +7102,10 @@
     </row>
     <row r="396">
       <c r="B396" s="0" t="n">
-        <v>0.02668828856388932</v>
+        <v>-0.06659791804145168</v>
       </c>
       <c r="C396" s="0" t="n">
-        <v>0.4441240181046482</v>
+        <v>0.05402681992730585</v>
       </c>
     </row>
     <row r="397">
@@ -7115,49 +7115,49 @@
         </is>
       </c>
       <c r="B397" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C397" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D397" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E397" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F397" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398">
       <c r="B398" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C398" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D398" s="0" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E398" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F398" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>SELL</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="B399" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C399" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D399" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E399" s="0" t="n">
         <v>1100</v>
@@ -7170,10 +7170,10 @@
     </row>
     <row r="400">
       <c r="B400" s="0" t="n">
-        <v>0.02668828856388932</v>
+        <v>-0.06659791804145168</v>
       </c>
       <c r="C400" s="0" t="n">
-        <v>0.4441240181046482</v>
+        <v>0.05402681992730585</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_integrate.xlsx
+++ b/output/ship_rule_integrate.xlsx
@@ -383,19 +383,19 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -403,45 +403,43 @@
         <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="5">
@@ -451,19 +449,19 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -471,45 +469,43 @@
         <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="9">
@@ -519,19 +515,19 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -539,45 +535,43 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="13">
@@ -587,19 +581,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -607,45 +601,43 @@
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="17">
@@ -655,19 +647,19 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -675,45 +667,43 @@
         <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="21">
@@ -723,19 +713,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -743,45 +733,43 @@
         <v>50</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="25">
@@ -791,19 +779,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -811,45 +799,43 @@
         <v>50</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="29">
@@ -859,19 +845,19 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -879,45 +865,43 @@
         <v>50</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="33">
@@ -927,19 +911,19 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -947,45 +931,43 @@
         <v>50</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="37">
@@ -995,19 +977,19 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1015,45 +997,43 @@
         <v>50</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="41">
@@ -1063,19 +1043,19 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1083,45 +1063,43 @@
         <v>50</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="45">
@@ -1131,19 +1109,19 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1151,45 +1129,43 @@
         <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5599092324872529</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.4862479473169724</v>
       </c>
     </row>
     <row r="49">
@@ -1199,19 +1175,19 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1222,42 +1198,40 @@
         <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F50" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="0" t="n">
-        <v>0.3829048040850488</v>
+        <v>0.5560586612127698</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.2822141389664222</v>
+        <v>0.5291804581963868</v>
       </c>
     </row>
     <row r="53">
@@ -1267,19 +1241,19 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1287,45 +1261,43 @@
         <v>50</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="0" t="n">
-        <v>0.3656814361581135</v>
+        <v>0.5509047219201898</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.2412107237680675</v>
+        <v>0.5096193335239962</v>
       </c>
     </row>
     <row r="57">
@@ -1335,19 +1307,19 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
@@ -1355,45 +1327,43 @@
         <v>50</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F58" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D59" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="0" t="n">
-        <v>0.3656814361581135</v>
+        <v>0.5483646576700757</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.2412107237680675</v>
+        <v>0.5208549214305809</v>
       </c>
     </row>
     <row r="61">
@@ -1403,19 +1373,19 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -1423,45 +1393,43 @@
         <v>50</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F62" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D63" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>0.3656814361581135</v>
+        <v>0.5483646576700757</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.2412107237680675</v>
+        <v>0.5208549214305809</v>
       </c>
     </row>
     <row r="65">
@@ -1471,65 +1439,63 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F66" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F66" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="0" t="n">
-        <v>0.3656814361581135</v>
+        <v>0.4791175885938614</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.2412107237680675</v>
+        <v>0.4220233653293851</v>
       </c>
     </row>
     <row r="69">
@@ -1539,27 +1505,27 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0</v>
@@ -1567,37 +1533,35 @@
       <c r="E70" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F70" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="0" t="n">
-        <v>0.3532869056035429</v>
+        <v>0.4791175885938614</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.2192230379947116</v>
+        <v>0.4220233653293851</v>
       </c>
     </row>
     <row r="73">
@@ -1607,27 +1571,27 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0</v>
@@ -1635,37 +1599,35 @@
       <c r="E74" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F74" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F74" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="0" t="n">
-        <v>0.3532869056035429</v>
+        <v>0.4778334769402657</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.2192230379947116</v>
+        <v>0.4216498010313761</v>
       </c>
     </row>
     <row r="77">
@@ -1675,27 +1637,27 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>0</v>
@@ -1703,37 +1665,35 @@
       <c r="E78" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F78" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F78" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C79" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D79" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="0" t="n">
-        <v>0.3532869056035429</v>
+        <v>0.4778334769402657</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.2192230379947116</v>
+        <v>0.4216498010313761</v>
       </c>
     </row>
     <row r="81">
@@ -1743,27 +1703,27 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0</v>
@@ -1771,37 +1731,35 @@
       <c r="E82" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F82" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F82" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="0" t="n">
-        <v>0.3532869056035429</v>
+        <v>0.4778334769402657</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.2192230379947116</v>
+        <v>0.4216498010313761</v>
       </c>
     </row>
     <row r="85">
@@ -1811,27 +1769,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
@@ -1839,37 +1797,35 @@
       <c r="E86" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F86" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F86" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="0" t="n">
-        <v>0.3500053895676724</v>
+        <v>0.4778334769402657</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.22062027703944</v>
+        <v>0.4216498010313761</v>
       </c>
     </row>
     <row r="89">
@@ -1879,65 +1835,65 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>14</v>
+        <v>750</v>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F90" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F90" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="0" t="n">
-        <v>0.3500053895676724</v>
+        <v>0.4778334769402657</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.22062027703944</v>
+        <v>0.4216498010313761</v>
       </c>
     </row>
     <row r="93">
@@ -1947,27 +1903,27 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
@@ -1975,37 +1931,35 @@
       <c r="E94" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F94" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F94" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="0" t="n">
-        <v>0.3500053895676724</v>
+        <v>0.4778334769402657</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.22062027703944</v>
+        <v>0.4216498010313761</v>
       </c>
     </row>
     <row r="97">
@@ -2015,65 +1969,63 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F98" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F98" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="0" t="n">
-        <v>0.2554267658373439</v>
+        <v>0.4778334769402657</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.1242723384044085</v>
+        <v>0.4216498010313761</v>
       </c>
     </row>
     <row r="101">
@@ -2083,65 +2035,63 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F102" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F102" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="0" t="n">
-        <v>0.2411516647709008</v>
+        <v>0.4778334769402657</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.09650096739863434</v>
+        <v>0.4216498010313761</v>
       </c>
     </row>
     <row r="105">
@@ -2151,19 +2101,21 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F105" s="0" t="n">
-        <v>24</v>
+        <v>1000</v>
+      </c>
+      <c r="F105" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -2171,45 +2123,43 @@
         <v>10</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F106" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F106" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="0" t="n">
-        <v>0.2411516647709008</v>
+        <v>0.4593634607716581</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.09650096739863434</v>
+        <v>0.3839086895907782</v>
       </c>
     </row>
     <row r="109">
@@ -2219,65 +2169,65 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F109" s="0" t="n">
-        <v>24</v>
+        <v>1300</v>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F110" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F110" s="0" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="0" t="n">
-        <v>0.2411516647709008</v>
+        <v>0.4585100211032903</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.09650096739863434</v>
+        <v>0.7417268265725012</v>
       </c>
     </row>
     <row r="113">
@@ -2287,65 +2237,65 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F113" s="0" t="n">
-        <v>22</v>
+        <v>1300</v>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F114" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F114" s="0" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="0" t="n">
-        <v>0.2328261634579575</v>
+        <v>0.4568055473038881</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.1334283402164166</v>
+        <v>0.3872683279325058</v>
       </c>
     </row>
     <row r="117">
@@ -2355,65 +2305,65 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>22</v>
+        <v>1300</v>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F118" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F118" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>0.2328261634579575</v>
+        <v>0.4489006726901227</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.1334283402164166</v>
+        <v>0.7678804131243201</v>
       </c>
     </row>
     <row r="121">
@@ -2423,49 +2373,49 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F121" s="0" t="n">
-        <v>25</v>
+        <v>1300</v>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F122" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F122" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>900</v>
@@ -2478,10 +2428,10 @@
     </row>
     <row r="124">
       <c r="B124" s="0" t="n">
-        <v>0.2314280002872033</v>
+        <v>0.4489006726901227</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.07955236516548017</v>
+        <v>0.7678804131243201</v>
       </c>
     </row>
     <row r="125">
@@ -2491,65 +2441,65 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>25</v>
+        <v>1300</v>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F126" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F126" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>0.2160397657809131</v>
+        <v>0.4489006726901227</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.09935823983059625</v>
+        <v>0.7678804131243201</v>
       </c>
     </row>
     <row r="129">
@@ -2559,52 +2509,52 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F129" s="0" t="n">
-        <v>19</v>
+        <v>1000</v>
+      </c>
+      <c r="F129" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F130" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
@@ -2614,10 +2564,10 @@
     </row>
     <row r="132">
       <c r="B132" s="0" t="n">
-        <v>0.2160397657809131</v>
+        <v>0.4376141977147315</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.09935823983059625</v>
+        <v>0.3594424840684454</v>
       </c>
     </row>
     <row r="133">
@@ -2627,65 +2577,65 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F133" s="0" t="n">
-        <v>25</v>
+        <v>1000</v>
+      </c>
+      <c r="F133" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F134" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F134" s="0" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="0" t="n">
-        <v>0.2160397657809131</v>
+        <v>0.4376141977147315</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.09935823983059625</v>
+        <v>0.3594424840684454</v>
       </c>
     </row>
     <row r="137">
@@ -2695,52 +2645,52 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F137" s="0" t="n">
-        <v>19</v>
+        <v>1000</v>
+      </c>
+      <c r="F137" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F138" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
@@ -2750,10 +2700,10 @@
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>0.2160397657809131</v>
+        <v>0.4376141977147315</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.09935823983059625</v>
+        <v>0.3594424840684454</v>
       </c>
     </row>
     <row r="141">
@@ -2763,52 +2713,52 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F141" s="0" t="n">
-        <v>19</v>
+        <v>1000</v>
+      </c>
+      <c r="F141" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F142" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
@@ -2818,10 +2768,10 @@
     </row>
     <row r="144">
       <c r="B144" s="0" t="n">
-        <v>0.2160397657809131</v>
+        <v>0.4376141977147315</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.09935823983059625</v>
+        <v>0.3594424840684454</v>
       </c>
     </row>
     <row r="145">
@@ -2831,52 +2781,52 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F145" s="0" t="n">
-        <v>19</v>
+        <v>1000</v>
+      </c>
+      <c r="F145" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F146" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
@@ -2886,10 +2836,10 @@
     </row>
     <row r="148">
       <c r="B148" s="0" t="n">
-        <v>0.2160397657809131</v>
+        <v>0.4376141977147315</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.09935823983059625</v>
+        <v>0.3594424840684454</v>
       </c>
     </row>
     <row r="149">
@@ -2902,49 +2852,47 @@
         <v>0</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F150" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
@@ -2954,10 +2902,10 @@
     </row>
     <row r="152">
       <c r="B152" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4111605225082383</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0</v>
+        <v>0.7287026918357467</v>
       </c>
     </row>
     <row r="153">
@@ -2967,38 +2915,36 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F154" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3006,26 +2952,26 @@
         <v>10</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>650</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4040442302649916</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0</v>
+        <v>0.3280877263824814</v>
       </c>
     </row>
     <row r="157">
@@ -3035,43 +2981,41 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158">
       <c r="B158" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F158" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>150</v>
@@ -3080,20 +3024,20 @@
         <v>0</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4040442302649916</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0</v>
+        <v>0.3280877263824814</v>
       </c>
     </row>
     <row r="161">
@@ -3103,52 +3047,52 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F161" s="0" t="n">
-        <v>13</v>
+        <v>1500</v>
+      </c>
+      <c r="F161" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F162" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
@@ -3158,10 +3102,10 @@
     </row>
     <row r="164">
       <c r="B164" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.4030201205526441</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0</v>
+        <v>0.7943132564753381</v>
       </c>
     </row>
     <row r="165">
@@ -3171,65 +3115,65 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F165" s="0" t="n">
-        <v>17</v>
+      <c r="F165" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F166" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3808198786103708</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0</v>
+        <v>0.6641351314500219</v>
       </c>
     </row>
     <row r="169">
@@ -3239,52 +3183,52 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F169" s="0" t="n">
-        <v>17</v>
+        <v>1500</v>
+      </c>
+      <c r="F169" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F170" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
@@ -3294,10 +3238,10 @@
     </row>
     <row r="172">
       <c r="B172" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3808198786103708</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>0</v>
+        <v>0.6641351314500219</v>
       </c>
     </row>
     <row r="173">
@@ -3310,62 +3254,60 @@
         <v>80</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F174" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="175">
       <c r="B175" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.360153542534743</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>0</v>
+        <v>0.5352560646147518</v>
       </c>
     </row>
     <row r="177">
@@ -3375,65 +3317,63 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F178" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="179">
       <c r="B179" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="B180" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.360153542534743</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>0</v>
+        <v>0.5352560646147518</v>
       </c>
     </row>
     <row r="181">
@@ -3443,16 +3383,16 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F181" s="0" t="n">
         <v>24</v>
@@ -3460,35 +3400,33 @@
     </row>
     <row r="182">
       <c r="B182" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F182" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="183">
       <c r="B183" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
@@ -3498,10 +3436,10 @@
     </row>
     <row r="184">
       <c r="B184" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.360153542534743</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>0</v>
+        <v>0.5352560646147518</v>
       </c>
     </row>
     <row r="185">
@@ -3514,35 +3452,33 @@
         <v>50</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F186" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="187">
@@ -3550,13 +3486,13 @@
         <v>10</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
@@ -3566,10 +3502,10 @@
     </row>
     <row r="188">
       <c r="B188" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3534050503272232</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>0</v>
+        <v>0.8462355796088555</v>
       </c>
     </row>
     <row r="189">
@@ -3579,52 +3515,52 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F189" s="0" t="n">
-        <v>13</v>
+        <v>1300</v>
+      </c>
+      <c r="F189" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="B190" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F190" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
@@ -3634,10 +3570,10 @@
     </row>
     <row r="192">
       <c r="B192" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3512479597874752</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>0</v>
+        <v>0.8112167619281118</v>
       </c>
     </row>
     <row r="193">
@@ -3647,37 +3583,37 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -3686,26 +3622,26 @@
         <v>10</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="B196" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3449088600615665</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>0</v>
+        <v>1.04313934343634</v>
       </c>
     </row>
     <row r="197">
@@ -3715,65 +3651,65 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F198" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="B199" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="B200" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3449088600615665</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>0</v>
+        <v>1.04313934343634</v>
       </c>
     </row>
     <row r="201">
@@ -3783,46 +3719,48 @@
         </is>
       </c>
       <c r="B201" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F201" s="0" t="n">
-        <v>24</v>
+        <v>1300</v>
+      </c>
+      <c r="F201" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="202">
       <c r="B202" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="F202" s="0" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="B203" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D203" s="0" t="n">
         <v>0</v>
@@ -3832,16 +3770,16 @@
       </c>
       <c r="F203" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="B204" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3393786071586307</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>0</v>
+        <v>1.050740816890536</v>
       </c>
     </row>
     <row r="205">
@@ -3851,52 +3789,52 @@
         </is>
       </c>
       <c r="B205" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F205" s="0" t="n">
-        <v>17</v>
+        <v>1500</v>
+      </c>
+      <c r="F205" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="B206" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F206" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="B207" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F207" s="0" t="inlineStr">
         <is>
@@ -3906,10 +3844,10 @@
     </row>
     <row r="208">
       <c r="B208" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3376452086510119</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>0</v>
+        <v>0.7470129760193734</v>
       </c>
     </row>
     <row r="209">
@@ -3919,65 +3857,65 @@
         </is>
       </c>
       <c r="B209" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F209" s="0" t="n">
-        <v>24</v>
+        <v>1500</v>
+      </c>
+      <c r="F209" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="B210" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F210" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F211" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="B212" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3376452086510119</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>0</v>
+        <v>0.7470129760193734</v>
       </c>
     </row>
     <row r="213">
@@ -3990,62 +3928,62 @@
         <v>80</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F213" s="0" t="n">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="F213" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="214">
       <c r="B214" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F214" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="B215" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F215" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="B216" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3376452086510119</v>
       </c>
       <c r="C216" s="0" t="n">
-        <v>0</v>
+        <v>0.7470129760193734</v>
       </c>
     </row>
     <row r="217">
@@ -4058,62 +3996,62 @@
         <v>80</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F217" s="0" t="n">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="F217" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="218">
       <c r="B218" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F218" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F219" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="B220" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3376452086510119</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>0</v>
+        <v>0.7470129760193734</v>
       </c>
     </row>
     <row r="221">
@@ -4123,52 +4061,52 @@
         </is>
       </c>
       <c r="B221" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F221" s="0" t="n">
-        <v>13</v>
+        <v>1500</v>
+      </c>
+      <c r="F221" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="B222" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F222" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F223" s="0" t="inlineStr">
         <is>
@@ -4178,10 +4116,10 @@
     </row>
     <row r="224">
       <c r="B224" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3376452086510119</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>0</v>
+        <v>0.7470129760193734</v>
       </c>
     </row>
     <row r="225">
@@ -4191,52 +4129,52 @@
         </is>
       </c>
       <c r="B225" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F225" s="0" t="n">
-        <v>17</v>
+        <v>1500</v>
+      </c>
+      <c r="F225" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="226">
       <c r="B226" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F226" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F227" s="0" t="inlineStr">
         <is>
@@ -4246,10 +4184,10 @@
     </row>
     <row r="228">
       <c r="B228" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3376452086510119</v>
       </c>
       <c r="C228" s="0" t="n">
-        <v>0</v>
+        <v>0.7470129760193734</v>
       </c>
     </row>
     <row r="229">
@@ -4259,52 +4197,52 @@
         </is>
       </c>
       <c r="B229" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C229" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F229" s="0" t="n">
-        <v>13</v>
+        <v>1000</v>
+      </c>
+      <c r="F229" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="230">
       <c r="B230" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F230" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C231" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F231" s="0" t="inlineStr">
         <is>
@@ -4314,10 +4252,10 @@
     </row>
     <row r="232">
       <c r="B232" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3280201222450836</v>
       </c>
       <c r="C232" s="0" t="n">
-        <v>0</v>
+        <v>1.019232130079675</v>
       </c>
     </row>
     <row r="233">
@@ -4327,52 +4265,52 @@
         </is>
       </c>
       <c r="B233" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F233" s="0" t="n">
-        <v>13</v>
+        <v>1000</v>
+      </c>
+      <c r="F233" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="234">
       <c r="B234" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F234" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C235" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E235" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F235" s="0" t="inlineStr">
         <is>
@@ -4382,10 +4320,10 @@
     </row>
     <row r="236">
       <c r="B236" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3280201222450836</v>
       </c>
       <c r="C236" s="0" t="n">
-        <v>0</v>
+        <v>1.019232130079675</v>
       </c>
     </row>
     <row r="237">
@@ -4395,19 +4333,21 @@
         </is>
       </c>
       <c r="B237" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E237" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F237" s="0" t="n">
-        <v>24</v>
+        <v>1000</v>
+      </c>
+      <c r="F237" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="238">
@@ -4415,45 +4355,43 @@
         <v>10</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E238" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F238" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C239" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E239" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F239" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="B240" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3280201222450836</v>
       </c>
       <c r="C240" s="0" t="n">
-        <v>0</v>
+        <v>1.019232130079675</v>
       </c>
     </row>
     <row r="241">
@@ -4463,52 +4401,52 @@
         </is>
       </c>
       <c r="B241" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F241" s="0" t="n">
-        <v>13</v>
+        <v>1000</v>
+      </c>
+      <c r="F241" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="242">
       <c r="B242" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C242" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D242" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E242" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F242" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F242" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C243" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D243" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E243" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F243" s="0" t="inlineStr">
         <is>
@@ -4518,10 +4456,10 @@
     </row>
     <row r="244">
       <c r="B244" s="0" t="n">
-        <v>0.2071801337523511</v>
+        <v>0.3280201222450836</v>
       </c>
       <c r="C244" s="0" t="n">
-        <v>0</v>
+        <v>1.019232130079675</v>
       </c>
     </row>
     <row r="245">
@@ -4531,65 +4469,65 @@
         </is>
       </c>
       <c r="B245" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C245" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E245" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F245" s="0" t="n">
-        <v>18</v>
+        <v>1000</v>
+      </c>
+      <c r="F245" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="246">
       <c r="B246" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C246" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="F246" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+      <c r="F246" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C247" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D247" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E247" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F247" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="B248" s="0" t="n">
-        <v>0.2032411061058762</v>
+        <v>0.3280201222450836</v>
       </c>
       <c r="C248" s="0" t="n">
-        <v>0.08651150191216411</v>
+        <v>1.019232130079675</v>
       </c>
     </row>
     <row r="249">
@@ -4599,19 +4537,19 @@
         </is>
       </c>
       <c r="B249" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C249" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E249" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F249" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250">
@@ -4619,45 +4557,43 @@
         <v>50</v>
       </c>
       <c r="C250" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E250" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F250" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C251" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E251" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F251" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="B252" s="0" t="n">
-        <v>0.2032411061058762</v>
+        <v>0.3052078308435925</v>
       </c>
       <c r="C252" s="0" t="n">
-        <v>0.08651150191216411</v>
+        <v>0.200146834790728</v>
       </c>
     </row>
     <row r="253">
@@ -4667,65 +4603,65 @@
         </is>
       </c>
       <c r="B253" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E253" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F253" s="0" t="n">
-        <v>18</v>
+        <v>1500</v>
+      </c>
+      <c r="F253" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="254">
       <c r="B254" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C254" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E254" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F254" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C255" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D255" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E255" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F255" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="B256" s="0" t="n">
-        <v>0.2032411061058762</v>
+        <v>0.289052641565569</v>
       </c>
       <c r="C256" s="0" t="n">
-        <v>0.08651150191216411</v>
+        <v>0.7216684759078213</v>
       </c>
     </row>
     <row r="257">
@@ -4738,62 +4674,62 @@
         <v>80</v>
       </c>
       <c r="C257" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D257" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E257" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F257" s="0" t="n">
-        <v>24</v>
+        <v>1500</v>
+      </c>
+      <c r="F257" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="258">
       <c r="B258" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C258" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D258" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E258" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F258" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F258" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C259" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C259" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D259" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E259" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F259" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="B260" s="0" t="n">
-        <v>0.1982262586216143</v>
+        <v>0.289052641565569</v>
       </c>
       <c r="C260" s="0" t="n">
-        <v>0.2010080415737545</v>
+        <v>0.7216684759078213</v>
       </c>
     </row>
     <row r="261">
@@ -4806,62 +4742,62 @@
         <v>80</v>
       </c>
       <c r="C261" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E261" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F261" s="0" t="n">
-        <v>24</v>
+        <v>1500</v>
+      </c>
+      <c r="F261" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="262">
       <c r="B262" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C262" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D262" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E262" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F262" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F262" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C263" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C263" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D263" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E263" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F263" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="B264" s="0" t="n">
-        <v>0.1982262586216143</v>
+        <v>0.289052641565569</v>
       </c>
       <c r="C264" s="0" t="n">
-        <v>0.2010080415737545</v>
+        <v>0.7216684759078213</v>
       </c>
     </row>
     <row r="265">
@@ -4871,65 +4807,65 @@
         </is>
       </c>
       <c r="B265" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C265" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D265" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E265" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F265" s="0" t="n">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="F265" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="266">
       <c r="B266" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C266" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D266" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E266" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F266" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F266" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="267">
       <c r="B267" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C267" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D267" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E267" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F267" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="B268" s="0" t="n">
-        <v>0.1905881605100423</v>
+        <v>0.2872772674170732</v>
       </c>
       <c r="C268" s="0" t="n">
-        <v>0.06710677481670677</v>
+        <v>0.8898583341820707</v>
       </c>
     </row>
     <row r="269">
@@ -4939,52 +4875,52 @@
         </is>
       </c>
       <c r="B269" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C269" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D269" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E269" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F269" s="0" t="n">
-        <v>13</v>
+        <v>1500</v>
+      </c>
+      <c r="F269" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="270">
       <c r="B270" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C270" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D270" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E270" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F270" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F270" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C271" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D271" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E271" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F271" s="0" t="inlineStr">
         <is>
@@ -4994,10 +4930,10 @@
     </row>
     <row r="272">
       <c r="B272" s="0" t="n">
-        <v>0.1901500826573375</v>
+        <v>0.2872772674170732</v>
       </c>
       <c r="C272" s="0" t="n">
-        <v>0.06024946353178764</v>
+        <v>0.8898583341820707</v>
       </c>
     </row>
     <row r="273">
@@ -5007,52 +4943,52 @@
         </is>
       </c>
       <c r="B273" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C273" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D273" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E273" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F273" s="0" t="n">
-        <v>13</v>
+        <v>1500</v>
+      </c>
+      <c r="F273" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="274">
       <c r="B274" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C274" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D274" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E274" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F274" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C275" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D275" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E275" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F275" s="0" t="inlineStr">
         <is>
@@ -5062,10 +4998,10 @@
     </row>
     <row r="276">
       <c r="B276" s="0" t="n">
-        <v>0.1901500826573375</v>
+        <v>0.2872772674170732</v>
       </c>
       <c r="C276" s="0" t="n">
-        <v>0.06024946353178764</v>
+        <v>0.8898583341820707</v>
       </c>
     </row>
     <row r="277">
@@ -5075,52 +5011,52 @@
         </is>
       </c>
       <c r="B277" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C277" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D277" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E277" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F277" s="0" t="n">
-        <v>13</v>
+        <v>1500</v>
+      </c>
+      <c r="F277" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="278">
       <c r="B278" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C278" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D278" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E278" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F278" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F278" s="0" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="279">
       <c r="B279" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C279" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D279" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E279" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F279" s="0" t="inlineStr">
         <is>
@@ -5130,10 +5066,10 @@
     </row>
     <row r="280">
       <c r="B280" s="0" t="n">
-        <v>0.1901500826573375</v>
+        <v>0.2872772674170732</v>
       </c>
       <c r="C280" s="0" t="n">
-        <v>0.06024946353178764</v>
+        <v>0.8898583341820707</v>
       </c>
     </row>
     <row r="281">
@@ -5143,52 +5079,52 @@
         </is>
       </c>
       <c r="B281" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C281" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D281" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E281" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F281" s="0" t="n">
-        <v>13</v>
+        <v>1500</v>
+      </c>
+      <c r="F281" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="282">
       <c r="B282" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C282" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D282" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E282" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F282" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F282" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="B283" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C283" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D283" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E283" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F283" s="0" t="inlineStr">
         <is>
@@ -5198,10 +5134,10 @@
     </row>
     <row r="284">
       <c r="B284" s="0" t="n">
-        <v>0.1901500826573375</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C284" s="0" t="n">
-        <v>0.06024946353178764</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="285">
@@ -5211,52 +5147,52 @@
         </is>
       </c>
       <c r="B285" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C285" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E285" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F285" s="0" t="n">
-        <v>13</v>
+        <v>1500</v>
+      </c>
+      <c r="F285" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="286">
       <c r="B286" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C286" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D286" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E286" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F286" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="B287" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C287" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E287" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F287" s="0" t="inlineStr">
         <is>
@@ -5266,10 +5202,10 @@
     </row>
     <row r="288">
       <c r="B288" s="0" t="n">
-        <v>0.1901500826573375</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C288" s="0" t="n">
-        <v>0.06024946353178764</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="289">
@@ -5282,62 +5218,60 @@
         <v>70</v>
       </c>
       <c r="C289" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D289" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E289" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F289" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C290" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D290" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E290" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F290" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F290" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="B291" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C291" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D291" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E291" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F291" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="B292" s="0" t="n">
-        <v>0.1850155822000992</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C292" s="0" t="n">
-        <v>0.1043464163262111</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="293">
@@ -5350,62 +5284,62 @@
         <v>70</v>
       </c>
       <c r="C293" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D293" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E293" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F293" s="0" t="n">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="F293" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="294">
       <c r="B294" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C294" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D294" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E294" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F294" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F294" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="B295" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C295" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D295" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E295" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F295" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="B296" s="0" t="n">
-        <v>0.1850155822000992</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C296" s="0" t="n">
-        <v>0.1043464163262111</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="297">
@@ -5415,65 +5349,65 @@
         </is>
       </c>
       <c r="B297" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C297" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D297" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E297" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F297" s="0" t="n">
-        <v>25</v>
+        <v>1500</v>
+      </c>
+      <c r="F297" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="298">
       <c r="B298" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C298" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D298" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E298" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F298" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F298" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C299" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D299" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E299" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F299" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="B300" s="0" t="n">
-        <v>0.1825119062154465</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C300" s="0" t="n">
-        <v>0.05873089874553365</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="301">
@@ -5483,65 +5417,65 @@
         </is>
       </c>
       <c r="B301" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C301" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D301" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E301" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F301" s="0" t="n">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="F301" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="302">
       <c r="B302" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C302" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D302" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E302" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F302" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="B303" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C303" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D303" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E303" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F303" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="B304" s="0" t="n">
-        <v>0.1825119062154465</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C304" s="0" t="n">
-        <v>0.05873089874553365</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="305">
@@ -5554,62 +5488,60 @@
         <v>70</v>
       </c>
       <c r="C305" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D305" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E305" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F305" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C306" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D306" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E306" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F306" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F306" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C307" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D307" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F307" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="B308" s="0" t="n">
-        <v>0.1825119062154465</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C308" s="0" t="n">
-        <v>0.05873089874553365</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="309">
@@ -5619,65 +5551,65 @@
         </is>
       </c>
       <c r="B309" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C309" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D309" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E309" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F309" s="0" t="n">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="F309" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="310">
       <c r="B310" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C310" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D310" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E310" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F310" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="B311" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C311" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D311" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E311" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F311" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="B312" s="0" t="n">
-        <v>0.1825119062154465</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C312" s="0" t="n">
-        <v>0.05873089874553365</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="313">
@@ -5687,65 +5619,65 @@
         </is>
       </c>
       <c r="B313" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C313" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D313" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E313" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F313" s="0" t="n">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="F313" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="314">
       <c r="B314" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C314" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D314" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E314" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F314" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F314" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C315" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D315" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E315" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F315" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="B316" s="0" t="n">
-        <v>0.1825119062154465</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C316" s="0" t="n">
-        <v>0.05873089874553365</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="317">
@@ -5758,62 +5690,60 @@
         <v>70</v>
       </c>
       <c r="C317" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D317" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E317" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F317" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C318" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D318" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E318" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F318" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F318" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C319" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D319" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E319" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F319" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="B320" s="0" t="n">
-        <v>0.1825119062154465</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C320" s="0" t="n">
-        <v>0.05873089874553365</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="321">
@@ -5826,62 +5756,62 @@
         <v>70</v>
       </c>
       <c r="C321" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D321" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E321" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F321" s="0" t="n">
-        <v>25</v>
+        <v>1500</v>
+      </c>
+      <c r="F321" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="322">
       <c r="B322" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C322" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D322" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E322" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F322" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F322" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C323" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D323" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E323" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F323" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="B324" s="0" t="n">
-        <v>0.1825119062154465</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C324" s="0" t="n">
-        <v>0.05873089874553365</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="325">
@@ -5894,62 +5824,62 @@
         <v>70</v>
       </c>
       <c r="C325" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D325" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F325" s="0" t="n">
-        <v>25</v>
+        <v>1500</v>
+      </c>
+      <c r="F325" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="326">
       <c r="B326" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C326" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D326" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E326" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F326" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F326" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="B327" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C327" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D327" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E327" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F327" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="B328" s="0" t="n">
-        <v>0.1825119062154465</v>
+        <v>0.2821370327315739</v>
       </c>
       <c r="C328" s="0" t="n">
-        <v>0.05873089874553365</v>
+        <v>1.03543695720531</v>
       </c>
     </row>
     <row r="329">
@@ -5959,65 +5889,65 @@
         </is>
       </c>
       <c r="B329" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C329" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D329" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E329" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F329" s="0" t="n">
-        <v>17</v>
+        <v>900</v>
+      </c>
+      <c r="F329" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="330">
       <c r="B330" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C330" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D330" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E330" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="F330" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F330" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C331" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D331" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E331" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F331" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="B332" s="0" t="n">
-        <v>0.167949539824851</v>
+        <v>0.2607109394995447</v>
       </c>
       <c r="C332" s="0" t="n">
-        <v>0.03464154498130274</v>
+        <v>0.5973246417363213</v>
       </c>
     </row>
     <row r="333">
@@ -6027,7 +5957,7 @@
         </is>
       </c>
       <c r="B333" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C333" s="0" t="n">
         <v>130</v>
@@ -6036,56 +5966,54 @@
         <v>600</v>
       </c>
       <c r="E333" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F333" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C334" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D334" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E334" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F334" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F334" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C335" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D335" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E335" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F335" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="B336" s="0" t="n">
-        <v>0.162346394442842</v>
+        <v>0.2385210621925122</v>
       </c>
       <c r="C336" s="0" t="n">
-        <v>0.1275061210810311</v>
+        <v>0.7130133049493939</v>
       </c>
     </row>
     <row r="337">
@@ -6095,65 +6023,63 @@
         </is>
       </c>
       <c r="B337" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C337" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D337" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E337" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F337" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C338" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D338" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F338" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F338" s="0" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C339" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D339" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E339" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F339" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="B340" s="0" t="n">
-        <v>0.1620692087251635</v>
+        <v>0.2350256494742461</v>
       </c>
       <c r="C340" s="0" t="n">
-        <v>0.07653964369833395</v>
+        <v>0.8881307616350416</v>
       </c>
     </row>
     <row r="341">
@@ -6163,65 +6089,65 @@
         </is>
       </c>
       <c r="B341" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D341" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E341" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F341" s="0" t="n">
-        <v>22</v>
+        <v>1500</v>
+      </c>
+      <c r="F341" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="342">
       <c r="B342" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C342" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D342" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E342" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F342" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F342" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C343" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D343" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F343" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="B344" s="0" t="n">
-        <v>0.1592612554898485</v>
+        <v>0.2118241036005611</v>
       </c>
       <c r="C344" s="0" t="n">
-        <v>0.06681604073129545</v>
+        <v>0.8971226036947521</v>
       </c>
     </row>
     <row r="345">
@@ -6231,52 +6157,50 @@
         </is>
       </c>
       <c r="B345" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C345" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D345" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E345" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F345" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C346" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D346" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E346" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F346" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F346" s="0" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="347">
       <c r="B347" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C347" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D347" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E347" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F347" s="0" t="inlineStr">
         <is>
@@ -6286,10 +6210,10 @@
     </row>
     <row r="348">
       <c r="B348" s="0" t="n">
-        <v>0.1592612554898485</v>
+        <v>0.2073941756442567</v>
       </c>
       <c r="C348" s="0" t="n">
-        <v>0.06681604073129545</v>
+        <v>2.052045240426776e-06</v>
       </c>
     </row>
     <row r="349">
@@ -6299,65 +6223,63 @@
         </is>
       </c>
       <c r="B349" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C349" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D349" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E349" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F349" s="0" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C350" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D350" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E350" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F350" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F350" s="0" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="351">
       <c r="B351" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C351" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D351" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E351" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F351" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="B352" s="0" t="n">
-        <v>0.1592612554898485</v>
+        <v>0.2073941756442567</v>
       </c>
       <c r="C352" s="0" t="n">
-        <v>0.06681604073129545</v>
+        <v>2.052045240426776e-06</v>
       </c>
     </row>
     <row r="353">
@@ -6367,52 +6289,50 @@
         </is>
       </c>
       <c r="B353" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C353" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D353" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E353" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F353" s="0" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C354" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D354" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E354" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F354" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="355">
       <c r="B355" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C355" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D355" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E355" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F355" s="0" t="inlineStr">
         <is>
@@ -6422,10 +6342,10 @@
     </row>
     <row r="356">
       <c r="B356" s="0" t="n">
-        <v>0.1592612554898485</v>
+        <v>0.2073941756442567</v>
       </c>
       <c r="C356" s="0" t="n">
-        <v>0.06681604073129545</v>
+        <v>2.052045240426776e-06</v>
       </c>
     </row>
     <row r="357">
@@ -6435,65 +6355,65 @@
         </is>
       </c>
       <c r="B357" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C357" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D357" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E357" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F357" s="0" t="n">
-        <v>24</v>
+        <v>1300</v>
+      </c>
+      <c r="F357" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="358">
       <c r="B358" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C358" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D358" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E358" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F358" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F358" s="0" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="359">
       <c r="B359" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C359" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D359" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E359" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F359" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="B360" s="0" t="n">
-        <v>0.1592612554898485</v>
+        <v>0.2061364056102523</v>
       </c>
       <c r="C360" s="0" t="n">
-        <v>0.06681604073129545</v>
+        <v>0.001323188188652851</v>
       </c>
     </row>
     <row r="361">
@@ -6503,65 +6423,65 @@
         </is>
       </c>
       <c r="B361" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C361" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D361" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E361" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F361" s="0" t="n">
-        <v>19</v>
+        <v>1300</v>
+      </c>
+      <c r="F361" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="362">
       <c r="B362" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C362" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E362" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F362" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="363">
       <c r="B363" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C363" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E363" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F363" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="B364" s="0" t="n">
-        <v>0.1518492477090514</v>
+        <v>0.2061364056102523</v>
       </c>
       <c r="C364" s="0" t="n">
-        <v>0.07376631408644441</v>
+        <v>0.001323188188652851</v>
       </c>
     </row>
     <row r="365">
@@ -6571,65 +6491,65 @@
         </is>
       </c>
       <c r="B365" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C365" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D365" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E365" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F365" s="0" t="n">
-        <v>24</v>
+        <v>900</v>
+      </c>
+      <c r="F365" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="366">
       <c r="B366" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C366" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D366" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E366" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F366" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F366" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="B367" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C367" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D367" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E367" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F367" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="B368" s="0" t="n">
-        <v>0.1481761493147958</v>
+        <v>0.1922233862122732</v>
       </c>
       <c r="C368" s="0" t="n">
-        <v>0.2368369796364108</v>
+        <v>0.8559291847588812</v>
       </c>
     </row>
     <row r="369">
@@ -6639,65 +6559,65 @@
         </is>
       </c>
       <c r="B369" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C369" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D369" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E369" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F369" s="0" t="n">
-        <v>24</v>
+        <v>900</v>
+      </c>
+      <c r="F369" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="370">
       <c r="B370" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C370" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D370" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E370" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F370" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F370" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C371" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D371" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E371" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F371" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="B372" s="0" t="n">
-        <v>0.1481761493147958</v>
+        <v>0.1922233862122732</v>
       </c>
       <c r="C372" s="0" t="n">
-        <v>0.2368369796364108</v>
+        <v>0.8559291847588812</v>
       </c>
     </row>
     <row r="373">
@@ -6707,65 +6627,65 @@
         </is>
       </c>
       <c r="B373" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C373" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D373" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E373" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F373" s="0" t="n">
-        <v>17</v>
+        <v>900</v>
+      </c>
+      <c r="F373" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="374">
       <c r="B374" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C374" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D374" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E374" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F374" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F374" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C375" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D375" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E375" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F375" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="B376" s="0" t="n">
-        <v>0.1352568318721562</v>
+        <v>0.1922233862122732</v>
       </c>
       <c r="C376" s="0" t="n">
-        <v>0.09924871866274601</v>
+        <v>0.8559291847588812</v>
       </c>
     </row>
     <row r="377">
@@ -6775,65 +6695,65 @@
         </is>
       </c>
       <c r="B377" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C377" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D377" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E377" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F377" s="0" t="n">
-        <v>17</v>
+        <v>900</v>
+      </c>
+      <c r="F377" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="378">
       <c r="B378" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C378" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D378" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E378" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F378" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F378" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C379" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D379" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E379" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F379" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="B380" s="0" t="n">
-        <v>0.1352568318721562</v>
+        <v>0.1922233862122732</v>
       </c>
       <c r="C380" s="0" t="n">
-        <v>0.09924871866274601</v>
+        <v>0.8559291847588812</v>
       </c>
     </row>
     <row r="381">
@@ -6843,19 +6763,19 @@
         </is>
       </c>
       <c r="B381" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C381" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D381" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E381" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E381" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F381" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382">
@@ -6863,45 +6783,43 @@
         <v>50</v>
       </c>
       <c r="C382" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D382" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E382" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F382" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F382" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="B383" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C383" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D383" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E383" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="F383" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="B384" s="0" t="n">
-        <v>0.09212672338315404</v>
+        <v>0.1863279863785871</v>
       </c>
       <c r="C384" s="0" t="n">
-        <v>0.03146326828802307</v>
+        <v>0.6105346555004429</v>
       </c>
     </row>
     <row r="385">
@@ -6911,19 +6829,19 @@
         </is>
       </c>
       <c r="B385" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C385" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D385" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E385" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E385" s="0" t="n">
-        <v>750</v>
-      </c>
       <c r="F385" s="0" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="386">
@@ -6931,45 +6849,43 @@
         <v>50</v>
       </c>
       <c r="C386" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E386" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F386" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F386" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C387" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D387" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E387" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F387" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="B388" s="0" t="n">
-        <v>0.09212672338315404</v>
+        <v>0.1551623811491521</v>
       </c>
       <c r="C388" s="0" t="n">
-        <v>0.03146326828802307</v>
+        <v>0.5357959491909907</v>
       </c>
     </row>
     <row r="389">
@@ -6979,19 +6895,19 @@
         </is>
       </c>
       <c r="B389" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C389" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D389" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E389" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E389" s="0" t="n">
-        <v>800</v>
-      </c>
       <c r="F389" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="390">
@@ -6999,45 +6915,43 @@
         <v>50</v>
       </c>
       <c r="C390" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D390" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E390" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F390" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F390" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C391" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D391" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E391" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F391" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="B392" s="0" t="n">
-        <v>-0.06659791804145168</v>
+        <v>0.1551623811491521</v>
       </c>
       <c r="C392" s="0" t="n">
-        <v>0.05402681992730585</v>
+        <v>0.5357959491909907</v>
       </c>
     </row>
     <row r="393">
@@ -7047,19 +6961,19 @@
         </is>
       </c>
       <c r="B393" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C393" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D393" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E393" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E393" s="0" t="n">
-        <v>800</v>
-      </c>
       <c r="F393" s="0" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="394">
@@ -7067,45 +6981,43 @@
         <v>50</v>
       </c>
       <c r="C394" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D394" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E394" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F394" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F394" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="B395" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C395" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D395" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E395" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F395" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="B396" s="0" t="n">
-        <v>-0.06659791804145168</v>
+        <v>0.1551623811491521</v>
       </c>
       <c r="C396" s="0" t="n">
-        <v>0.05402681992730585</v>
+        <v>0.5357959491909907</v>
       </c>
     </row>
     <row r="397">
@@ -7115,43 +7027,41 @@
         </is>
       </c>
       <c r="B397" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C397" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D397" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E397" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E397" s="0" t="n">
-        <v>800</v>
-      </c>
       <c r="F397" s="0" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="398">
       <c r="B398" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C398" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D398" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E398" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F398" s="0" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F398" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="B399" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C399" s="0" t="n">
         <v>130</v>
@@ -7160,20 +7070,20 @@
         <v>400</v>
       </c>
       <c r="E399" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F399" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="B400" s="0" t="n">
-        <v>-0.06659791804145168</v>
+        <v>0.08324906332509846</v>
       </c>
       <c r="C400" s="0" t="n">
-        <v>0.05402681992730585</v>
+        <v>0.6930743187704015</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_integrate.xlsx
+++ b/output/ship_rule_integrate.xlsx
@@ -386,16 +386,16 @@
         <v>80</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -403,30 +403,30 @@
         <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -436,10 +436,10 @@
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="5">
@@ -452,16 +452,16 @@
         <v>80</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -469,30 +469,30 @@
         <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
@@ -502,10 +502,10 @@
     </row>
     <row r="8">
       <c r="B8" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="9">
@@ -518,16 +518,16 @@
         <v>80</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -535,30 +535,30 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="13">
@@ -584,16 +584,16 @@
         <v>80</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -601,30 +601,30 @@
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
     </row>
     <row r="16">
       <c r="B16" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="17">
@@ -650,16 +650,16 @@
         <v>80</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -667,30 +667,30 @@
         <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
@@ -700,10 +700,10 @@
     </row>
     <row r="20">
       <c r="B20" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="21">
@@ -716,16 +716,16 @@
         <v>80</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -733,30 +733,30 @@
         <v>50</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="25">
@@ -782,16 +782,16 @@
         <v>80</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -799,30 +799,30 @@
         <v>50</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -832,10 +832,10 @@
     </row>
     <row r="28">
       <c r="B28" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="29">
@@ -848,16 +848,16 @@
         <v>80</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -865,30 +865,30 @@
         <v>50</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -898,10 +898,10 @@
     </row>
     <row r="32">
       <c r="B32" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="33">
@@ -914,16 +914,16 @@
         <v>80</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -931,30 +931,30 @@
         <v>50</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
     </row>
     <row r="36">
       <c r="B36" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="37">
@@ -980,16 +980,16 @@
         <v>80</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -997,30 +997,30 @@
         <v>50</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="40">
       <c r="B40" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="41">
@@ -1046,16 +1046,16 @@
         <v>80</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1063,30 +1063,30 @@
         <v>50</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="44">
       <c r="B44" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3483258978382305</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5659782355607585</v>
       </c>
     </row>
     <row r="45">
@@ -1112,16 +1112,16 @@
         <v>80</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -1129,30 +1129,30 @@
         <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="48">
       <c r="B48" s="0" t="n">
-        <v>0.5599092324872529</v>
+        <v>0.3473163372160151</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.4862479473169724</v>
+        <v>0.5683381989428075</v>
       </c>
     </row>
     <row r="49">
@@ -1178,16 +1178,16 @@
         <v>80</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -1198,27 +1198,27 @@
         <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="52">
       <c r="B52" s="0" t="n">
-        <v>0.5560586612127698</v>
+        <v>0.3473163372160151</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.5291804581963868</v>
+        <v>0.5683381989428075</v>
       </c>
     </row>
     <row r="53">
@@ -1247,13 +1247,13 @@
         <v>120</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -1261,30 +1261,30 @@
         <v>50</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="56">
       <c r="B56" s="0" t="n">
-        <v>0.5509047219201898</v>
+        <v>0.3473163372160151</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.5096193335239962</v>
+        <v>0.5683381989428075</v>
       </c>
     </row>
     <row r="57">
@@ -1307,19 +1307,21 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>24</v>
+        <v>700</v>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1327,30 +1329,30 @@
         <v>50</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -1360,10 +1362,10 @@
     </row>
     <row r="60">
       <c r="B60" s="0" t="n">
-        <v>0.5483646576700757</v>
+        <v>0.3444928383819471</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.5208549214305809</v>
+        <v>0.5845208463385501</v>
       </c>
     </row>
     <row r="61">
@@ -1373,19 +1375,21 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>24</v>
+        <v>700</v>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1393,30 +1397,30 @@
         <v>50</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
@@ -1426,10 +1430,10 @@
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>0.5483646576700757</v>
+        <v>0.3444928383819471</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.5208549214305809</v>
+        <v>0.5845208463385501</v>
       </c>
     </row>
     <row r="65">
@@ -1439,50 +1443,52 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>11</v>
+        <v>700</v>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
@@ -1492,10 +1498,10 @@
     </row>
     <row r="68">
       <c r="B68" s="0" t="n">
-        <v>0.4791175885938614</v>
+        <v>0.3444928383819471</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.4220233653293851</v>
+        <v>0.5845208463385501</v>
       </c>
     </row>
     <row r="69">
@@ -1505,50 +1511,52 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>11</v>
+        <v>700</v>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
@@ -1558,10 +1566,10 @@
     </row>
     <row r="72">
       <c r="B72" s="0" t="n">
-        <v>0.4791175885938614</v>
+        <v>0.3444928383819471</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.4220233653293851</v>
+        <v>0.5845208463385501</v>
       </c>
     </row>
     <row r="73">
@@ -1571,50 +1579,52 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>11</v>
+        <v>700</v>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
@@ -1624,10 +1634,10 @@
     </row>
     <row r="76">
       <c r="B76" s="0" t="n">
-        <v>0.4778334769402657</v>
+        <v>0.3444928383819471</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.4216498010313761</v>
+        <v>0.5845208463385501</v>
       </c>
     </row>
     <row r="77">
@@ -1637,50 +1647,52 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>11</v>
+        <v>700</v>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
@@ -1690,10 +1702,10 @@
     </row>
     <row r="80">
       <c r="B80" s="0" t="n">
-        <v>0.4778334769402657</v>
+        <v>0.3444928383819471</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.4216498010313761</v>
+        <v>0.5845208463385501</v>
       </c>
     </row>
     <row r="81">
@@ -1703,50 +1715,52 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>11</v>
+        <v>700</v>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
@@ -1756,10 +1770,10 @@
     </row>
     <row r="84">
       <c r="B84" s="0" t="n">
-        <v>0.4778334769402657</v>
+        <v>0.3444928383819471</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.4216498010313761</v>
+        <v>0.5845208463385501</v>
       </c>
     </row>
     <row r="85">
@@ -1769,41 +1783,41 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>90</v>
@@ -1812,7 +1826,7 @@
         <v>300</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
@@ -1822,10 +1836,10 @@
     </row>
     <row r="88">
       <c r="B88" s="0" t="n">
-        <v>0.4778334769402657</v>
+        <v>0.3299132323710546</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.4216498010313761</v>
+        <v>0.5131973388082628</v>
       </c>
     </row>
     <row r="89">
@@ -1835,43 +1849,41 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F89" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>90</v>
@@ -1880,7 +1892,7 @@
         <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
@@ -1890,10 +1902,10 @@
     </row>
     <row r="92">
       <c r="B92" s="0" t="n">
-        <v>0.4778334769402657</v>
+        <v>0.3243674531704191</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.4216498010313761</v>
+        <v>0.4862363574412203</v>
       </c>
     </row>
     <row r="93">
@@ -1903,50 +1915,50 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
@@ -1956,10 +1968,10 @@
     </row>
     <row r="96">
       <c r="B96" s="0" t="n">
-        <v>0.4778334769402657</v>
+        <v>0.3243674531704191</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.4216498010313761</v>
+        <v>0.4862363574412203</v>
       </c>
     </row>
     <row r="97">
@@ -1969,41 +1981,41 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>90</v>
@@ -2012,7 +2024,7 @@
         <v>300</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
@@ -2022,10 +2034,10 @@
     </row>
     <row r="100">
       <c r="B100" s="0" t="n">
-        <v>0.4778334769402657</v>
+        <v>0.3243674531704191</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.4216498010313761</v>
+        <v>0.4862363574412203</v>
       </c>
     </row>
     <row r="101">
@@ -2035,50 +2047,50 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
@@ -2088,10 +2100,10 @@
     </row>
     <row r="104">
       <c r="B104" s="0" t="n">
-        <v>0.4778334769402657</v>
+        <v>0.3164440977308942</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.4216498010313761</v>
+        <v>0.4915410695577448</v>
       </c>
     </row>
     <row r="105">
@@ -2101,16 +2113,16 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
@@ -2120,33 +2132,33 @@
     </row>
     <row r="106">
       <c r="B106" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
@@ -2156,10 +2168,10 @@
     </row>
     <row r="108">
       <c r="B108" s="0" t="n">
-        <v>0.4593634607716581</v>
+        <v>0.2874715315227422</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.3839086895907782</v>
+        <v>0.7635131107746858</v>
       </c>
     </row>
     <row r="109">
@@ -2172,13 +2184,13 @@
         <v>80</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
@@ -2188,33 +2200,33 @@
     </row>
     <row r="110">
       <c r="B110" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
@@ -2224,10 +2236,10 @@
     </row>
     <row r="112">
       <c r="B112" s="0" t="n">
-        <v>0.4585100211032903</v>
+        <v>0.2874715315227422</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.7417268265725012</v>
+        <v>0.7635131107746858</v>
       </c>
     </row>
     <row r="113">
@@ -2240,13 +2252,13 @@
         <v>80</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
@@ -2256,33 +2268,33 @@
     </row>
     <row r="114">
       <c r="B114" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
@@ -2292,10 +2304,10 @@
     </row>
     <row r="116">
       <c r="B116" s="0" t="n">
-        <v>0.4568055473038881</v>
+        <v>0.2874715315227422</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.3872683279325058</v>
+        <v>0.7635131107746858</v>
       </c>
     </row>
     <row r="117">
@@ -2308,13 +2320,13 @@
         <v>80</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F117" s="0" t="inlineStr">
         <is>
@@ -2324,33 +2336,33 @@
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
@@ -2360,10 +2372,10 @@
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>0.4489006726901227</v>
+        <v>0.2874715315227422</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.7678804131243201</v>
+        <v>0.7635131107746858</v>
       </c>
     </row>
     <row r="121">
@@ -2376,13 +2388,13 @@
         <v>80</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
@@ -2392,33 +2404,33 @@
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
@@ -2428,10 +2440,10 @@
     </row>
     <row r="124">
       <c r="B124" s="0" t="n">
-        <v>0.4489006726901227</v>
+        <v>0.2874715315227422</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.7678804131243201</v>
+        <v>0.7635131107746858</v>
       </c>
     </row>
     <row r="125">
@@ -2441,16 +2453,16 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F125" s="0" t="inlineStr">
         <is>
@@ -2460,33 +2472,33 @@
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
@@ -2496,10 +2508,10 @@
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>0.4489006726901227</v>
+        <v>0.2870632600842797</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.7678804131243201</v>
+        <v>0.7615140003986842</v>
       </c>
     </row>
     <row r="129">
@@ -2509,16 +2521,16 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F129" s="0" t="inlineStr">
         <is>
@@ -2528,33 +2540,33 @@
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
@@ -2564,10 +2576,10 @@
     </row>
     <row r="132">
       <c r="B132" s="0" t="n">
-        <v>0.4376141977147315</v>
+        <v>0.2870632600842797</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.3594424840684454</v>
+        <v>0.7615140003986842</v>
       </c>
     </row>
     <row r="133">
@@ -2577,16 +2589,16 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
@@ -2596,19 +2608,19 @@
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2616,13 +2628,13 @@
         <v>10</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
@@ -2632,10 +2644,10 @@
     </row>
     <row r="136">
       <c r="B136" s="0" t="n">
-        <v>0.4376141977147315</v>
+        <v>0.2824332839495814</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.3594424840684454</v>
+        <v>0.760271942608951</v>
       </c>
     </row>
     <row r="137">
@@ -2645,16 +2657,16 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F137" s="0" t="inlineStr">
         <is>
@@ -2664,33 +2676,33 @@
     </row>
     <row r="138">
       <c r="B138" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
@@ -2700,10 +2712,10 @@
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>0.4376141977147315</v>
+        <v>0.2824332839495814</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.3594424840684454</v>
+        <v>0.760271942608951</v>
       </c>
     </row>
     <row r="141">
@@ -2713,16 +2725,16 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F141" s="0" t="inlineStr">
         <is>
@@ -2732,19 +2744,19 @@
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2752,13 +2764,13 @@
         <v>10</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
@@ -2768,10 +2780,10 @@
     </row>
     <row r="144">
       <c r="B144" s="0" t="n">
-        <v>0.4376141977147315</v>
+        <v>0.2824332839495814</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.3594424840684454</v>
+        <v>0.760271942608951</v>
       </c>
     </row>
     <row r="145">
@@ -2781,16 +2793,16 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F145" s="0" t="inlineStr">
         <is>
@@ -2800,33 +2812,33 @@
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
@@ -2836,10 +2848,10 @@
     </row>
     <row r="148">
       <c r="B148" s="0" t="n">
-        <v>0.4376141977147315</v>
+        <v>0.2704216829716033</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.3594424840684454</v>
+        <v>0.732408298620389</v>
       </c>
     </row>
     <row r="149">
@@ -2849,50 +2861,52 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F149" s="0" t="n">
-        <v>23</v>
+        <v>700</v>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
@@ -2902,10 +2916,10 @@
     </row>
     <row r="152">
       <c r="B152" s="0" t="n">
-        <v>0.4111605225082383</v>
+        <v>0.2704216829716033</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.7287026918357467</v>
+        <v>0.732408298620389</v>
       </c>
     </row>
     <row r="153">
@@ -2915,19 +2929,21 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F153" s="0" t="n">
-        <v>23</v>
+        <v>700</v>
+      </c>
+      <c r="F153" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -2938,40 +2954,40 @@
         <v>150</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="0" t="n">
-        <v>0.4040442302649916</v>
+        <v>0.2704216829716033</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0.3280877263824814</v>
+        <v>0.732408298620389</v>
       </c>
     </row>
     <row r="157">
@@ -2981,19 +2997,21 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F157" s="0" t="n">
-        <v>23</v>
+        <v>700</v>
+      </c>
+      <c r="F157" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -3004,40 +3022,40 @@
         <v>150</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" s="0" t="n">
-        <v>0.4040442302649916</v>
+        <v>0.2704216829716033</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0.3280877263824814</v>
+        <v>0.732408298620389</v>
       </c>
     </row>
     <row r="161">
@@ -3047,38 +3065,36 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F161" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="163">
@@ -3086,26 +3102,26 @@
         <v>30</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="B164" s="0" t="n">
-        <v>0.4030201205526441</v>
+        <v>0.2113448622060861</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.7943132564753381</v>
+        <v>0.001545817958700187</v>
       </c>
     </row>
     <row r="165">
@@ -3115,26 +3131,24 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F165" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>130</v>
@@ -3143,37 +3157,37 @@
         <v>200</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="0" t="n">
-        <v>0.3808198786103708</v>
+        <v>0.2113448622060861</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0.6641351314500219</v>
+        <v>0.001545817958700187</v>
       </c>
     </row>
     <row r="169">
@@ -3183,65 +3197,63 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F169" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="B172" s="0" t="n">
-        <v>0.3808198786103708</v>
+        <v>0.209303145487043</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>0.6641351314500219</v>
+        <v>0.0002048652454827199</v>
       </c>
     </row>
     <row r="173">
@@ -3251,63 +3263,65 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F173" s="0" t="n">
-        <v>24</v>
+        <v>900</v>
+      </c>
+      <c r="F173" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="175">
       <c r="B175" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="0" t="n">
-        <v>0.360153542534743</v>
+        <v>0.2081139703722406</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>0.5352560646147518</v>
+        <v>3.270183755381441e-05</v>
       </c>
     </row>
     <row r="177">
@@ -3317,63 +3331,65 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F177" s="0" t="n">
-        <v>24</v>
+        <v>900</v>
+      </c>
+      <c r="F177" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="B178" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179">
       <c r="B179" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="B180" s="0" t="n">
-        <v>0.360153542534743</v>
+        <v>0.2081139703722406</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>0.5352560646147518</v>
+        <v>3.270183755381441e-05</v>
       </c>
     </row>
     <row r="181">
@@ -3383,63 +3399,65 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F181" s="0" t="n">
-        <v>24</v>
+        <v>900</v>
+      </c>
+      <c r="F181" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="B182" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="183">
       <c r="B183" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="B184" s="0" t="n">
-        <v>0.360153542534743</v>
+        <v>0.2081139703722406</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>0.5352560646147518</v>
+        <v>3.270183755381441e-05</v>
       </c>
     </row>
     <row r="185">
@@ -3449,36 +3467,38 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F185" s="0" t="n">
-        <v>19</v>
+      <c r="F185" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="B186" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="187">
@@ -3486,13 +3506,13 @@
         <v>10</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
@@ -3502,10 +3522,10 @@
     </row>
     <row r="188">
       <c r="B188" s="0" t="n">
-        <v>0.3534050503272232</v>
+        <v>0.2081139703722406</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>0.8462355796088555</v>
+        <v>3.270183755381441e-05</v>
       </c>
     </row>
     <row r="189">
@@ -3515,16 +3535,16 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D189" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E189" s="0" t="n">
         <v>700</v>
-      </c>
-      <c r="E189" s="0" t="n">
-        <v>1300</v>
       </c>
       <c r="F189" s="0" t="inlineStr">
         <is>
@@ -3534,33 +3554,33 @@
     </row>
     <row r="190">
       <c r="B190" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>0.15</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
@@ -3570,10 +3590,10 @@
     </row>
     <row r="192">
       <c r="B192" s="0" t="n">
-        <v>0.3512479597874752</v>
+        <v>0.2076470520622958</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>0.8112167619281118</v>
+        <v>8.175459388453707e-06</v>
       </c>
     </row>
     <row r="193">
@@ -3583,38 +3603,36 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F194" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -3622,13 +3640,13 @@
         <v>10</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
@@ -3638,10 +3656,10 @@
     </row>
     <row r="196">
       <c r="B196" s="0" t="n">
-        <v>0.3449088600615665</v>
+        <v>0.2071801337523509</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>1.04313934343634</v>
+        <v>1.232595164407831e-32</v>
       </c>
     </row>
     <row r="197">
@@ -3651,38 +3669,36 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F198" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -3690,13 +3706,13 @@
         <v>10</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
@@ -3706,10 +3722,10 @@
     </row>
     <row r="200">
       <c r="B200" s="0" t="n">
-        <v>0.3449088600615665</v>
+        <v>0.2071801337523509</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>1.04313934343634</v>
+        <v>1.232595164407831e-32</v>
       </c>
     </row>
     <row r="201">
@@ -3722,51 +3738,47 @@
         <v>80</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F201" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="F202" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="B203" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F203" s="0" t="inlineStr">
         <is>
@@ -3776,10 +3788,10 @@
     </row>
     <row r="204">
       <c r="B204" s="0" t="n">
-        <v>0.3393786071586307</v>
+        <v>0.2071801337523509</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>1.050740816890536</v>
+        <v>1.232595164407831e-32</v>
       </c>
     </row>
     <row r="205">
@@ -3792,49 +3804,47 @@
         <v>80</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F205" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="207">
       <c r="B207" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F207" s="0" t="inlineStr">
         <is>
@@ -3844,10 +3854,10 @@
     </row>
     <row r="208">
       <c r="B208" s="0" t="n">
-        <v>0.3376452086510119</v>
+        <v>0.14539914749406</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>0.7470129760193734</v>
+        <v>0.3932490008493125</v>
       </c>
     </row>
     <row r="209">
@@ -3860,62 +3870,60 @@
         <v>80</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F209" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F211" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="B212" s="0" t="n">
-        <v>0.3376452086510119</v>
+        <v>0.1425628029920572</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>0.7470129760193734</v>
+        <v>0.5313162045675742</v>
       </c>
     </row>
     <row r="213">
@@ -3928,62 +3936,60 @@
         <v>80</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F213" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="215">
       <c r="B215" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F215" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="B216" s="0" t="n">
-        <v>0.3376452086510119</v>
+        <v>0.1424496494434574</v>
       </c>
       <c r="C216" s="0" t="n">
-        <v>0.7470129760193734</v>
+        <v>0.531314787141124</v>
       </c>
     </row>
     <row r="217">
@@ -3993,52 +3999,50 @@
         </is>
       </c>
       <c r="B217" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F217" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F219" s="0" t="inlineStr">
         <is>
@@ -4048,10 +4052,10 @@
     </row>
     <row r="220">
       <c r="B220" s="0" t="n">
-        <v>0.3376452086510119</v>
+        <v>0.1366520811052006</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>0.7470129760193734</v>
+        <v>0.3668552929611169</v>
       </c>
     </row>
     <row r="221">
@@ -4061,52 +4065,50 @@
         </is>
       </c>
       <c r="B221" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F221" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E223" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F223" s="0" t="inlineStr">
         <is>
@@ -4116,10 +4118,10 @@
     </row>
     <row r="224">
       <c r="B224" s="0" t="n">
-        <v>0.3376452086510119</v>
+        <v>0.1366520811052006</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>0.7470129760193734</v>
+        <v>0.3668552929611169</v>
       </c>
     </row>
     <row r="225">
@@ -4129,52 +4131,50 @@
         </is>
       </c>
       <c r="B225" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F225" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F227" s="0" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
     </row>
     <row r="228">
       <c r="B228" s="0" t="n">
-        <v>0.3376452086510119</v>
+        <v>0.1366520811052006</v>
       </c>
       <c r="C228" s="0" t="n">
-        <v>0.7470129760193734</v>
+        <v>0.3668552929611169</v>
       </c>
     </row>
     <row r="229">
@@ -4197,16 +4197,16 @@
         </is>
       </c>
       <c r="B229" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C229" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D229" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E229" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F229" s="0" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
     </row>
     <row r="230">
       <c r="B230" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="F230" s="0" t="n">
         <v>0</v>
@@ -4233,29 +4233,29 @@
     </row>
     <row r="231">
       <c r="B231" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C231" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F231" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="B232" s="0" t="n">
-        <v>0.3280201222450836</v>
+        <v>0.1304806086948608</v>
       </c>
       <c r="C232" s="0" t="n">
-        <v>1.019232130079675</v>
+        <v>0.5476276400876792</v>
       </c>
     </row>
     <row r="233">
@@ -4265,35 +4265,33 @@
         </is>
       </c>
       <c r="B233" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E233" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F233" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D234" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E234" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>0</v>
@@ -4310,20 +4308,20 @@
         <v>0</v>
       </c>
       <c r="E235" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F235" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="B236" s="0" t="n">
-        <v>0.3280201222450836</v>
+        <v>0.07874103820716187</v>
       </c>
       <c r="C236" s="0" t="n">
-        <v>1.019232130079675</v>
+        <v>0.4249700438333802</v>
       </c>
     </row>
     <row r="237">
@@ -4333,35 +4331,33 @@
         </is>
       </c>
       <c r="B237" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E237" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F237" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D238" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E238" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F238" s="0" t="n">
         <v>0</v>
@@ -4378,20 +4374,20 @@
         <v>0</v>
       </c>
       <c r="E239" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F239" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="B240" s="0" t="n">
-        <v>0.3280201222450836</v>
+        <v>0.07874103820716187</v>
       </c>
       <c r="C240" s="0" t="n">
-        <v>1.019232130079675</v>
+        <v>0.4249700438333802</v>
       </c>
     </row>
     <row r="241">
@@ -4401,35 +4397,33 @@
         </is>
       </c>
       <c r="B241" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D241" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E241" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F241" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F241" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C242" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D242" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E242" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F242" s="0" t="n">
         <v>0</v>
@@ -4446,20 +4440,20 @@
         <v>0</v>
       </c>
       <c r="E243" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F243" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="B244" s="0" t="n">
-        <v>0.3280201222450836</v>
+        <v>0.07874103820716187</v>
       </c>
       <c r="C244" s="0" t="n">
-        <v>1.019232130079675</v>
+        <v>0.4249700438333802</v>
       </c>
     </row>
     <row r="245">
@@ -4469,16 +4463,16 @@
         </is>
       </c>
       <c r="B245" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D245" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E245" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F245" s="0" t="inlineStr">
         <is>
@@ -4491,43 +4485,43 @@
         <v>10</v>
       </c>
       <c r="C246" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D246" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E246" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F246" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C247" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D247" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E247" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F247" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="B248" s="0" t="n">
-        <v>0.3280201222450836</v>
+        <v>0.07346095564744683</v>
       </c>
       <c r="C248" s="0" t="n">
-        <v>1.019232130079675</v>
+        <v>0.3757482742675811</v>
       </c>
     </row>
     <row r="249">
@@ -4537,63 +4531,65 @@
         </is>
       </c>
       <c r="B249" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C249" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D249" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E249" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F249" s="0" t="n">
-        <v>21</v>
+        <v>700</v>
+      </c>
+      <c r="F249" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="250">
       <c r="B250" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C250" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D250" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F250" s="0" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C251" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D251" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E251" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F251" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="B252" s="0" t="n">
-        <v>0.3052078308435925</v>
+        <v>0.07346095564744683</v>
       </c>
       <c r="C252" s="0" t="n">
-        <v>0.200146834790728</v>
+        <v>0.3757482742675811</v>
       </c>
     </row>
     <row r="253">
@@ -4606,13 +4602,13 @@
         <v>80</v>
       </c>
       <c r="C253" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D253" s="0" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="E253" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F253" s="0" t="inlineStr">
         <is>
@@ -4622,46 +4618,46 @@
     </row>
     <row r="254">
       <c r="B254" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C254" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D254" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E254" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F254" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D255" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E255" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F255" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="B256" s="0" t="n">
-        <v>0.289052641565569</v>
+        <v>0.07346095564744683</v>
       </c>
       <c r="C256" s="0" t="n">
-        <v>0.7216684759078213</v>
+        <v>0.3757482742675811</v>
       </c>
     </row>
     <row r="257">
@@ -4674,13 +4670,13 @@
         <v>80</v>
       </c>
       <c r="C257" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D257" s="0" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="E257" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F257" s="0" t="inlineStr">
         <is>
@@ -4690,46 +4686,46 @@
     </row>
     <row r="258">
       <c r="B258" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C258" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D258" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E258" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F258" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D259" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E259" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F259" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="B260" s="0" t="n">
-        <v>0.289052641565569</v>
+        <v>0.07346095564744683</v>
       </c>
       <c r="C260" s="0" t="n">
-        <v>0.7216684759078213</v>
+        <v>0.3757482742675811</v>
       </c>
     </row>
     <row r="261">
@@ -4742,13 +4738,13 @@
         <v>80</v>
       </c>
       <c r="C261" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D261" s="0" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="E261" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F261" s="0" t="inlineStr">
         <is>
@@ -4758,46 +4754,46 @@
     </row>
     <row r="262">
       <c r="B262" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C262" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D262" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E262" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F262" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D263" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E263" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F263" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="B264" s="0" t="n">
-        <v>0.289052641565569</v>
+        <v>0.07346095564744683</v>
       </c>
       <c r="C264" s="0" t="n">
-        <v>0.7216684759078213</v>
+        <v>0.3757482742675811</v>
       </c>
     </row>
     <row r="265">
@@ -4813,10 +4809,10 @@
         <v>150</v>
       </c>
       <c r="D265" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E265" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F265" s="0" t="inlineStr">
         <is>
@@ -4826,46 +4822,46 @@
     </row>
     <row r="266">
       <c r="B266" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C266" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D266" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E266" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F266" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="267">
       <c r="B267" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C267" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D267" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E267" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F267" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="B268" s="0" t="n">
-        <v>0.2872772674170732</v>
+        <v>0.07346095564744683</v>
       </c>
       <c r="C268" s="0" t="n">
-        <v>0.8898583341820707</v>
+        <v>0.3757482742675811</v>
       </c>
     </row>
     <row r="269">
@@ -4881,10 +4877,10 @@
         <v>150</v>
       </c>
       <c r="D269" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E269" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F269" s="0" t="inlineStr">
         <is>
@@ -4894,46 +4890,46 @@
     </row>
     <row r="270">
       <c r="B270" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C270" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D270" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E270" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F270" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C271" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D271" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E271" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F271" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="B272" s="0" t="n">
-        <v>0.2872772674170732</v>
+        <v>0.07346095564744683</v>
       </c>
       <c r="C272" s="0" t="n">
-        <v>0.8898583341820707</v>
+        <v>0.3757482742675811</v>
       </c>
     </row>
     <row r="273">
@@ -4949,10 +4945,10 @@
         <v>150</v>
       </c>
       <c r="D273" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E273" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F273" s="0" t="inlineStr">
         <is>
@@ -4962,46 +4958,46 @@
     </row>
     <row r="274">
       <c r="B274" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C274" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D274" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E274" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F274" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C275" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D275" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E275" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F275" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="B276" s="0" t="n">
-        <v>0.2872772674170732</v>
+        <v>0.07346095564744683</v>
       </c>
       <c r="C276" s="0" t="n">
-        <v>0.8898583341820707</v>
+        <v>0.3757482742675811</v>
       </c>
     </row>
     <row r="277">
@@ -5014,35 +5010,33 @@
         <v>80</v>
       </c>
       <c r="C277" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D277" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E277" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F277" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F277" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C278" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D278" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E278" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F278" s="0" t="n">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="279">
@@ -5050,26 +5044,26 @@
         <v>0</v>
       </c>
       <c r="C279" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D279" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E279" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="E279" s="0" t="n">
-        <v>700</v>
-      </c>
       <c r="F279" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="B280" s="0" t="n">
-        <v>0.2872772674170732</v>
+        <v>0.01056189815185298</v>
       </c>
       <c r="C280" s="0" t="n">
-        <v>0.8898583341820707</v>
+        <v>0.3068643487505049</v>
       </c>
     </row>
     <row r="281">
@@ -5079,38 +5073,36 @@
         </is>
       </c>
       <c r="B281" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C281" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D281" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E281" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F281" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C282" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D282" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E282" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F282" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="283">
@@ -5118,26 +5110,26 @@
         <v>0</v>
       </c>
       <c r="C283" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D283" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E283" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F283" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="B284" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>0.01056189815185298</v>
       </c>
       <c r="C284" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.3068643487505049</v>
       </c>
     </row>
     <row r="285">
@@ -5147,16 +5139,16 @@
         </is>
       </c>
       <c r="B285" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C285" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D285" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E285" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F285" s="0" t="inlineStr">
         <is>
@@ -5166,19 +5158,19 @@
     </row>
     <row r="286">
       <c r="B286" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C286" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D286" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E286" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F286" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="287">
@@ -5186,26 +5178,26 @@
         <v>0</v>
       </c>
       <c r="C287" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D287" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E287" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F287" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="B288" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.007829889739536919</v>
       </c>
       <c r="C288" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2823588901522096</v>
       </c>
     </row>
     <row r="289">
@@ -5215,36 +5207,38 @@
         </is>
       </c>
       <c r="B289" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C289" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D289" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E289" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F289" s="0" t="n">
-        <v>21</v>
+        <v>900</v>
+      </c>
+      <c r="F289" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="290">
       <c r="B290" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C290" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D290" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E290" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F290" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="291">
@@ -5252,26 +5246,26 @@
         <v>0</v>
       </c>
       <c r="C291" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D291" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E291" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F291" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="B292" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.007829889739536919</v>
       </c>
       <c r="C292" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2823588901522096</v>
       </c>
     </row>
     <row r="293">
@@ -5281,16 +5275,16 @@
         </is>
       </c>
       <c r="B293" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C293" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D293" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E293" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F293" s="0" t="inlineStr">
         <is>
@@ -5300,19 +5294,19 @@
     </row>
     <row r="294">
       <c r="B294" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C294" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D294" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E294" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F294" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="295">
@@ -5320,26 +5314,26 @@
         <v>0</v>
       </c>
       <c r="C295" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D295" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E295" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F295" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="B296" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.007829889739536919</v>
       </c>
       <c r="C296" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2823588901522096</v>
       </c>
     </row>
     <row r="297">
@@ -5352,62 +5346,60 @@
         <v>80</v>
       </c>
       <c r="C297" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D297" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E297" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F297" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C298" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D298" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E298" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F298" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C299" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D299" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E299" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F299" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="B300" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.01597378392512758</v>
       </c>
       <c r="C300" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.269179984407189</v>
       </c>
     </row>
     <row r="301">
@@ -5420,62 +5412,60 @@
         <v>80</v>
       </c>
       <c r="C301" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D301" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E301" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F301" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="302">
       <c r="B302" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C302" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D302" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E302" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F302" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="303">
       <c r="B303" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C303" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D303" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E303" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F303" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="B304" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.01597378392512758</v>
       </c>
       <c r="C304" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.269179984407189</v>
       </c>
     </row>
     <row r="305">
@@ -5485,36 +5475,36 @@
         </is>
       </c>
       <c r="B305" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C305" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D305" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E305" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F305" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C306" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D306" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E306" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F306" s="0" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="307">
@@ -5522,26 +5512,26 @@
         <v>0</v>
       </c>
       <c r="C307" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D307" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F307" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="B308" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.0164329485563143</v>
       </c>
       <c r="C308" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2584207320479495</v>
       </c>
     </row>
     <row r="309">
@@ -5554,13 +5544,13 @@
         <v>80</v>
       </c>
       <c r="C309" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D309" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E309" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F309" s="0" t="inlineStr">
         <is>
@@ -5570,46 +5560,46 @@
     </row>
     <row r="310">
       <c r="B310" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C310" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D310" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E310" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F310" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="311">
       <c r="B311" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C311" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D311" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E311" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F311" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="B312" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.02944695325178878</v>
       </c>
       <c r="C312" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2438062807634788</v>
       </c>
     </row>
     <row r="313">
@@ -5622,13 +5612,13 @@
         <v>80</v>
       </c>
       <c r="C313" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D313" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E313" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F313" s="0" t="inlineStr">
         <is>
@@ -5638,46 +5628,46 @@
     </row>
     <row r="314">
       <c r="B314" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C314" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D314" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E314" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F314" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C315" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D315" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E315" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F315" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="B316" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.02944695325178878</v>
       </c>
       <c r="C316" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2438062807634788</v>
       </c>
     </row>
     <row r="317">
@@ -5687,63 +5677,65 @@
         </is>
       </c>
       <c r="B317" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C317" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D317" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E317" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F317" s="0" t="n">
-        <v>21</v>
+        <v>900</v>
+      </c>
+      <c r="F317" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="318">
       <c r="B318" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C318" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D318" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E318" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F318" s="0" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C319" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D319" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E319" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F319" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="B320" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.02944695325178878</v>
       </c>
       <c r="C320" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2438062807634788</v>
       </c>
     </row>
     <row r="321">
@@ -5753,38 +5745,36 @@
         </is>
       </c>
       <c r="B321" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C321" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D321" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E321" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F321" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C322" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D322" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E322" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F322" s="0" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="323">
@@ -5792,26 +5782,26 @@
         <v>0</v>
       </c>
       <c r="C323" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D323" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E323" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F323" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="B324" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.03168485338240035</v>
       </c>
       <c r="C324" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2297888979409595</v>
       </c>
     </row>
     <row r="325">
@@ -5821,38 +5811,36 @@
         </is>
       </c>
       <c r="B325" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C325" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D325" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F325" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F325" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C326" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D326" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E326" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F326" s="0" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="327">
@@ -5860,26 +5848,26 @@
         <v>0</v>
       </c>
       <c r="C327" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D327" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E327" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F327" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="B328" s="0" t="n">
-        <v>0.2821370327315739</v>
+        <v>-0.03168485338240035</v>
       </c>
       <c r="C328" s="0" t="n">
-        <v>1.03543695720531</v>
+        <v>0.2297888979409595</v>
       </c>
     </row>
     <row r="329">
@@ -5889,65 +5877,63 @@
         </is>
       </c>
       <c r="B329" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C329" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D329" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E329" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F329" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F329" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C330" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D330" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E330" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F330" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C331" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D331" s="0" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E331" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F331" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="B332" s="0" t="n">
-        <v>0.2607109394995447</v>
+        <v>-0.03168485338240035</v>
       </c>
       <c r="C332" s="0" t="n">
-        <v>0.5973246417363213</v>
+        <v>0.2297888979409595</v>
       </c>
     </row>
     <row r="333">
@@ -5957,63 +5943,63 @@
         </is>
       </c>
       <c r="B333" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C333" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D333" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E333" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F333" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C334" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D334" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E334" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F334" s="0" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C335" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D335" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E335" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F335" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="B336" s="0" t="n">
-        <v>0.2385210621925122</v>
+        <v>-0.03168485338240035</v>
       </c>
       <c r="C336" s="0" t="n">
-        <v>0.7130133049493939</v>
+        <v>0.2297888979409595</v>
       </c>
     </row>
     <row r="337">
@@ -6023,63 +6009,63 @@
         </is>
       </c>
       <c r="B337" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C337" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D337" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E337" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F337" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C338" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C338" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D338" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E338" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F338" s="0" t="n">
-        <v>0.9</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C339" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D339" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E339" s="0" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="F339" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="B340" s="0" t="n">
-        <v>0.2350256494742461</v>
+        <v>-0.03168485338240035</v>
       </c>
       <c r="C340" s="0" t="n">
-        <v>0.8881307616350416</v>
+        <v>0.2297888979409595</v>
       </c>
     </row>
     <row r="341">
@@ -6089,38 +6075,36 @@
         </is>
       </c>
       <c r="B341" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C341" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D341" s="0" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E341" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F341" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F341" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C342" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D342" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E342" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F342" s="0" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="343">
@@ -6128,26 +6112,26 @@
         <v>0</v>
       </c>
       <c r="C343" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D343" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F343" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="B344" s="0" t="n">
-        <v>0.2118241036005611</v>
+        <v>-0.03227820517304836</v>
       </c>
       <c r="C344" s="0" t="n">
-        <v>0.8971226036947521</v>
+        <v>0.2291249235800462</v>
       </c>
     </row>
     <row r="345">
@@ -6157,10 +6141,10 @@
         </is>
       </c>
       <c r="B345" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C345" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D345" s="0" t="n">
         <v>200</v>
@@ -6169,24 +6153,24 @@
         <v>900</v>
       </c>
       <c r="F345" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C346" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D346" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E346" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F346" s="0" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="347">
@@ -6194,26 +6178,26 @@
         <v>0</v>
       </c>
       <c r="C347" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D347" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E347" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F347" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="B348" s="0" t="n">
-        <v>0.2073941756442567</v>
+        <v>-0.03227820517304836</v>
       </c>
       <c r="C348" s="0" t="n">
-        <v>2.052045240426776e-06</v>
+        <v>0.2291249235800462</v>
       </c>
     </row>
     <row r="349">
@@ -6223,36 +6207,36 @@
         </is>
       </c>
       <c r="B349" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C349" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D349" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E349" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F349" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C350" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D350" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E350" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F350" s="0" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="351">
@@ -6260,26 +6244,26 @@
         <v>0</v>
       </c>
       <c r="C351" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D351" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E351" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F351" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="B352" s="0" t="n">
-        <v>0.2073941756442567</v>
+        <v>-0.03227820517304836</v>
       </c>
       <c r="C352" s="0" t="n">
-        <v>2.052045240426776e-06</v>
+        <v>0.2291249235800462</v>
       </c>
     </row>
     <row r="353">
@@ -6289,10 +6273,10 @@
         </is>
       </c>
       <c r="B353" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C353" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D353" s="0" t="n">
         <v>200</v>
@@ -6301,24 +6285,24 @@
         <v>900</v>
       </c>
       <c r="F353" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C354" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D354" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E354" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F354" s="0" t="n">
-        <v>0.95</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="355">
@@ -6326,26 +6310,26 @@
         <v>0</v>
       </c>
       <c r="C355" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D355" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E355" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F355" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="B356" s="0" t="n">
-        <v>0.2073941756442567</v>
+        <v>-0.03244171540764602</v>
       </c>
       <c r="C356" s="0" t="n">
-        <v>2.052045240426776e-06</v>
+        <v>0.2198451454757597</v>
       </c>
     </row>
     <row r="357">
@@ -6355,21 +6339,19 @@
         </is>
       </c>
       <c r="B357" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C357" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D357" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E357" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="E357" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F357" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F357" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="358">
@@ -6377,43 +6359,43 @@
         <v>10</v>
       </c>
       <c r="C358" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D358" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E358" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F358" s="0" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="359">
       <c r="B359" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C359" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D359" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E359" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F359" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="B360" s="0" t="n">
-        <v>0.2061364056102523</v>
+        <v>-0.08481967769197893</v>
       </c>
       <c r="C360" s="0" t="n">
-        <v>0.001323188188652851</v>
+        <v>0.1813274748021619</v>
       </c>
     </row>
     <row r="361">
@@ -6423,21 +6405,19 @@
         </is>
       </c>
       <c r="B361" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C361" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D361" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E361" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="E361" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F361" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F361" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="362">
@@ -6445,43 +6425,43 @@
         <v>10</v>
       </c>
       <c r="C362" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D362" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E362" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F362" s="0" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="363">
       <c r="B363" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C363" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D363" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E363" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F363" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="B364" s="0" t="n">
-        <v>0.2061364056102523</v>
+        <v>-0.08481967769197893</v>
       </c>
       <c r="C364" s="0" t="n">
-        <v>0.001323188188652851</v>
+        <v>0.1813274748021619</v>
       </c>
     </row>
     <row r="365">
@@ -6491,65 +6471,63 @@
         </is>
       </c>
       <c r="B365" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C365" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D365" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E365" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F365" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F365" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C366" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D366" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E366" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F366" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="367">
       <c r="B367" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C367" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D367" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E367" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F367" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="B368" s="0" t="n">
-        <v>0.1922233862122732</v>
+        <v>-0.08706134413990789</v>
       </c>
       <c r="C368" s="0" t="n">
-        <v>0.8559291847588812</v>
+        <v>0.1805332203112371</v>
       </c>
     </row>
     <row r="369">
@@ -6559,65 +6537,63 @@
         </is>
       </c>
       <c r="B369" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C369" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D369" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E369" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F369" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F369" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C370" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D370" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E370" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F370" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C371" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D371" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E371" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F371" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="B372" s="0" t="n">
-        <v>0.1922233862122732</v>
+        <v>-0.09094970348654702</v>
       </c>
       <c r="C372" s="0" t="n">
-        <v>0.8559291847588812</v>
+        <v>0.1725642552518687</v>
       </c>
     </row>
     <row r="373">
@@ -6627,65 +6603,63 @@
         </is>
       </c>
       <c r="B373" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C373" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D373" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E373" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F373" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F373" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C374" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D374" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E374" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F374" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C375" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D375" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E375" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F375" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="B376" s="0" t="n">
-        <v>0.1922233862122732</v>
+        <v>-0.09094970348654702</v>
       </c>
       <c r="C376" s="0" t="n">
-        <v>0.8559291847588812</v>
+        <v>0.1725642552518687</v>
       </c>
     </row>
     <row r="377">
@@ -6695,65 +6669,63 @@
         </is>
       </c>
       <c r="B377" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C377" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D377" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E377" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="F377" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F377" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C378" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D378" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E378" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F378" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C379" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D379" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E379" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F379" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="B380" s="0" t="n">
-        <v>0.1922233862122732</v>
+        <v>-0.09094970348654702</v>
       </c>
       <c r="C380" s="0" t="n">
-        <v>0.8559291847588812</v>
+        <v>0.1725642552518687</v>
       </c>
     </row>
     <row r="381">
@@ -6763,50 +6735,50 @@
         </is>
       </c>
       <c r="B381" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C381" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D381" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E381" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F381" s="0" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C382" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D382" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E382" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F382" s="0" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="383">
       <c r="B383" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C383" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D383" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E383" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F383" s="0" t="inlineStr">
         <is>
@@ -6816,10 +6788,10 @@
     </row>
     <row r="384">
       <c r="B384" s="0" t="n">
-        <v>0.1863279863785871</v>
+        <v>-0.09094970348654702</v>
       </c>
       <c r="C384" s="0" t="n">
-        <v>0.6105346555004429</v>
+        <v>0.1725642552518687</v>
       </c>
     </row>
     <row r="385">
@@ -6829,50 +6801,50 @@
         </is>
       </c>
       <c r="B385" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C385" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D385" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E385" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F385" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C386" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D386" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E386" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F386" s="0" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C387" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D387" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E387" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F387" s="0" t="inlineStr">
         <is>
@@ -6882,10 +6854,10 @@
     </row>
     <row r="388">
       <c r="B388" s="0" t="n">
-        <v>0.1551623811491521</v>
+        <v>-0.09094970348654702</v>
       </c>
       <c r="C388" s="0" t="n">
-        <v>0.5357959491909907</v>
+        <v>0.1725642552518687</v>
       </c>
     </row>
     <row r="389">
@@ -6895,50 +6867,50 @@
         </is>
       </c>
       <c r="B389" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C389" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D389" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E389" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F389" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390">
       <c r="B390" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C390" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D390" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E390" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F390" s="0" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C391" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D391" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E391" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F391" s="0" t="inlineStr">
         <is>
@@ -6948,10 +6920,10 @@
     </row>
     <row r="392">
       <c r="B392" s="0" t="n">
-        <v>0.1551623811491521</v>
+        <v>-0.09094970348654702</v>
       </c>
       <c r="C392" s="0" t="n">
-        <v>0.5357959491909907</v>
+        <v>0.1725642552518687</v>
       </c>
     </row>
     <row r="393">
@@ -6961,50 +6933,50 @@
         </is>
       </c>
       <c r="B393" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C393" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D393" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E393" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F393" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C394" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D394" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E394" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F394" s="0" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="395">
       <c r="B395" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C395" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D395" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E395" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F395" s="0" t="inlineStr">
         <is>
@@ -7014,10 +6986,10 @@
     </row>
     <row r="396">
       <c r="B396" s="0" t="n">
-        <v>0.1551623811491521</v>
+        <v>-0.09094970348654702</v>
       </c>
       <c r="C396" s="0" t="n">
-        <v>0.5357959491909907</v>
+        <v>0.1725642552518687</v>
       </c>
     </row>
     <row r="397">
@@ -7027,50 +6999,50 @@
         </is>
       </c>
       <c r="B397" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C397" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D397" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E397" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F397" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398">
       <c r="B398" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C398" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D398" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E398" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F398" s="0" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="399">
       <c r="B399" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C399" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D399" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E399" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F399" s="0" t="inlineStr">
         <is>
@@ -7080,10 +7052,10 @@
     </row>
     <row r="400">
       <c r="B400" s="0" t="n">
-        <v>0.08324906332509846</v>
+        <v>-0.09094970348654702</v>
       </c>
       <c r="C400" s="0" t="n">
-        <v>0.6930743187704015</v>
+        <v>0.1725642552518687</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_integrate.xlsx
+++ b/output/ship_rule_integrate.xlsx
@@ -383,33 +383,35 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>24</v>
+        <v>650</v>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -417,29 +419,29 @@
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2712599465697811</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -449,33 +451,35 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>24</v>
+        <v>650</v>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -483,29 +487,29 @@
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2712599465697811</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -515,33 +519,35 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>24</v>
+        <v>650</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>5</v>
@@ -549,29 +555,29 @@
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2712599465697811</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -581,27 +587,29 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>24</v>
+        <v>750</v>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -615,29 +623,29 @@
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2712599465697811</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -647,27 +655,29 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>24</v>
+        <v>750</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0</v>
@@ -681,29 +691,29 @@
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2712599465697811</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -713,33 +723,35 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>24</v>
+        <v>650</v>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>5</v>
@@ -747,29 +759,29 @@
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2712599465697811</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -779,33 +791,35 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>24</v>
+        <v>650</v>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>5</v>
@@ -813,29 +827,29 @@
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2712599465697811</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -845,30 +859,30 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>700</v>
@@ -879,29 +893,29 @@
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2341175254873873</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -911,30 +925,30 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>700</v>
@@ -945,29 +959,29 @@
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2341175254873873</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -977,30 +991,30 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>700</v>
@@ -1011,29 +1025,29 @@
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2341175254873873</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1043,30 +1057,30 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>700</v>
@@ -1077,29 +1091,29 @@
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2341175254873873</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1109,30 +1123,30 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>700</v>
@@ -1143,29 +1157,29 @@
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2341175254873873</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1175,27 +1189,29 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>24</v>
+        <v>750</v>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>0</v>
@@ -1204,34 +1220,34 @@
         <v>700</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2323942347116087</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1241,27 +1257,29 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>24</v>
+        <v>750</v>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0</v>
@@ -1270,34 +1288,34 @@
         <v>700</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2323942347116087</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1307,27 +1325,29 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>24</v>
+        <v>750</v>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>0</v>
@@ -1336,34 +1356,34 @@
         <v>700</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="0" t="n">
-        <v>0.2980151311186645</v>
+        <v>0.2323942347116087</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.02414928727331264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1373,16 +1393,16 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
@@ -1392,7 +1412,7 @@
     </row>
     <row r="62">
       <c r="B62" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>120</v>
@@ -1401,37 +1421,37 @@
         <v>0</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>0.2979315677028281</v>
+        <v>0.2323942347116087</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.02412332267807642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1441,16 +1461,16 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
@@ -1460,7 +1480,7 @@
     </row>
     <row r="66">
       <c r="B66" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>120</v>
@@ -1469,37 +1489,37 @@
         <v>0</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="0" t="n">
-        <v>0.2979315677028281</v>
+        <v>0.2323942347116087</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.02412332267807642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1509,16 +1529,16 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
@@ -1528,46 +1548,46 @@
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter, 80 ships</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="0" t="n">
-        <v>0.2979315677028281</v>
+        <v>0.2279931938282984</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.02412332267807642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1577,63 +1597,65 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>24</v>
+        <v>750</v>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter, 80 ships</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="0" t="n">
-        <v>0.2979315677028281</v>
+        <v>0.2279931938282984</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.02412332267807642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1643,65 +1665,63 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="0" t="n">
-        <v>0.2979315677028281</v>
+        <v>0.2268709139798813</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.02412332267807642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1711,65 +1731,63 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F81" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="0" t="n">
-        <v>0.2979315677028281</v>
+        <v>0.2268709139798813</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.02412332267807642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1779,16 +1797,16 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
@@ -1798,46 +1816,48 @@
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F86" s="0" t="n">
-        <v>5</v>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 90 ships</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="0" t="n">
-        <v>0.2694056624996978</v>
+        <v>-0.4695675081548457</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.0160759426899423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1847,63 +1867,67 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>24</v>
+        <v>750</v>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 90 ships</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="0" t="n">
-        <v>0.2694056624996978</v>
+        <v>-0.4695675081548457</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.0160759426899423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1913,16 +1937,16 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
@@ -1932,10 +1956,10 @@
     </row>
     <row r="94">
       <c r="B94" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>0</v>
@@ -1943,35 +1967,37 @@
       <c r="E94" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F94" s="0" t="n">
-        <v>5</v>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="0" t="n">
-        <v>0.2694056624996978</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.0160759426899423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1981,16 +2007,16 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
@@ -2000,46 +2026,48 @@
     </row>
     <row r="98">
       <c r="B98" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="0" t="n">
-        <v>0.2694056624996978</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.0160759426899423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2049,50 +2077,54 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="F101" s="0" t="n">
-        <v>24</v>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F102" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C103" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C103" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D103" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
@@ -2102,10 +2134,10 @@
     </row>
     <row r="104">
       <c r="B104" s="0" t="n">
-        <v>0.2455460155721056</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.01059485127529065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2115,16 +2147,16 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
@@ -2134,33 +2166,35 @@
     </row>
     <row r="106">
       <c r="B106" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F106" s="0" t="n">
-        <v>5</v>
+      <c r="F106" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
@@ -2170,10 +2204,10 @@
     </row>
     <row r="108">
       <c r="B108" s="0" t="n">
-        <v>0.2455460155721056</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.01059485127529065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2183,16 +2217,16 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
@@ -2202,33 +2236,35 @@
     </row>
     <row r="110">
       <c r="B110" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F110" s="0" t="n">
-        <v>5</v>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
@@ -2238,10 +2274,10 @@
     </row>
     <row r="112">
       <c r="B112" s="0" t="n">
-        <v>0.2455460155721056</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.01059485127529065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2251,16 +2287,16 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
@@ -2270,33 +2306,35 @@
     </row>
     <row r="114">
       <c r="B114" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
@@ -2306,10 +2344,10 @@
     </row>
     <row r="116">
       <c r="B116" s="0" t="n">
-        <v>0.2455460155721056</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.01059485127529065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2319,50 +2357,54 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F117" s="0" t="n">
-        <v>24</v>
+        <v>700</v>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F118" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
@@ -2372,10 +2414,10 @@
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>0.2455460155721056</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.01059485127529065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2385,16 +2427,16 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
@@ -2404,33 +2446,35 @@
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="F122" s="0" t="n">
-        <v>5</v>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
@@ -2440,10 +2484,10 @@
     </row>
     <row r="124">
       <c r="B124" s="0" t="n">
-        <v>0.2455460155721056</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.01059485127529065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2453,63 +2497,67 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>19</v>
+        <v>750</v>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F126" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2519,16 +2567,16 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F129" s="0" t="inlineStr">
         <is>
@@ -2538,33 +2586,35 @@
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F130" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F130" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
@@ -2574,10 +2624,10 @@
     </row>
     <row r="132">
       <c r="B132" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2587,16 +2637,16 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
@@ -2606,33 +2656,35 @@
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F134" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
@@ -2642,10 +2694,10 @@
     </row>
     <row r="136">
       <c r="B136" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2655,16 +2707,16 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F137" s="0" t="inlineStr">
         <is>
@@ -2674,46 +2726,48 @@
     </row>
     <row r="138">
       <c r="B138" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F138" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F138" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C139" s="0" t="n">
         <v>30</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>120</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.5019936597575131</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2723,52 +2777,52 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F141" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F142" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F142" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
@@ -2778,10 +2832,10 @@
     </row>
     <row r="144">
       <c r="B144" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.7835120009355161</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2791,65 +2845,65 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F145" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F146" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F146" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="B148" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.7835120009355161</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2859,38 +2913,38 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F149" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F150" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F150" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -2898,13 +2952,13 @@
         <v>10</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
@@ -2914,10 +2968,10 @@
     </row>
     <row r="152">
       <c r="B152" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.7835120009355161</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -2927,52 +2981,52 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F153" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F154" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F154" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
@@ -2982,10 +3036,10 @@
     </row>
     <row r="156">
       <c r="B156" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.7835120009355161</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2995,52 +3049,52 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="F157" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="F157" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="158">
       <c r="B158" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F158" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F158" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
@@ -3050,10 +3104,10 @@
     </row>
     <row r="160">
       <c r="B160" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.7835120009355161</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3063,52 +3117,52 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F161" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>650</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F162" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F162" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
@@ -3118,10 +3172,10 @@
     </row>
     <row r="164">
       <c r="B164" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-0.7835120009355161</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3134,60 +3188,62 @@
         <v>10</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F166" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F166" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="B167" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.036810723444095</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3197,52 +3253,52 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F169" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F170" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F170" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
@@ -3252,10 +3308,10 @@
     </row>
     <row r="172">
       <c r="B172" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.036810723444095</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3268,60 +3324,62 @@
         <v>10</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F174" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F174" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="B175" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.036810723444095</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3331,52 +3389,52 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C177" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C177" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D177" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F177" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="178">
       <c r="B178" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F178" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F178" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="B179" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
@@ -3386,10 +3444,10 @@
     </row>
     <row r="180">
       <c r="B180" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.036810723444095</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3399,52 +3457,52 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F181" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>700</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="182">
       <c r="B182" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F182" s="0" t="n">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="F182" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="B183" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
@@ -3454,10 +3512,10 @@
     </row>
     <row r="184">
       <c r="B184" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.036810723444095</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3467,63 +3525,65 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D185" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E185" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E185" s="0" t="n">
-        <v>600</v>
-      </c>
       <c r="F185" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F186" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F186" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="187">
       <c r="B187" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="B188" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.116194832193996</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3533,63 +3593,65 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D189" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E189" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E189" s="0" t="n">
-        <v>600</v>
-      </c>
       <c r="F189" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F190" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F190" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="B191" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="B192" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.116194832193996</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3599,52 +3661,52 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F193" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F194" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F194" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="195">
       <c r="B195" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
@@ -3654,10 +3716,10 @@
     </row>
     <row r="196">
       <c r="B196" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.116194832193996</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3667,65 +3729,65 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F197" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>500</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F198" s="0" t="n">
-        <v>5</v>
+        <v>1000</v>
+      </c>
+      <c r="F198" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="B199" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="B200" s="0" t="n">
-        <v>0.2261956906511167</v>
+        <v>-1.116194832193996</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>0.006985778384696833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">

--- a/output/ship_rule_integrate.xlsx
+++ b/output/ship_rule_integrate.xlsx
@@ -383,83 +383,83 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>21</v>
+        <v>200</v>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>36month charter, 25 ships</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>0.3382428364378998</v>
+        <v>0.346764866490775</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.3634400202773745</v>
+        <v>0.2691455425762014</v>
       </c>
     </row>
     <row r="5">
@@ -469,81 +469,83 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D5" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>21</v>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>0.346764866490775</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.2691455425762014</v>
       </c>
     </row>
     <row r="9">
@@ -553,81 +555,83 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>21</v>
+        <v>200</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>0.346764866490775</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.2691455425762014</v>
       </c>
     </row>
     <row r="13">
@@ -637,81 +641,83 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>21</v>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>0.346764866490775</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.2691455425762014</v>
       </c>
     </row>
     <row r="17">
@@ -721,81 +727,83 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G17" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>21</v>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>0.346764866490775</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.2691455425762014</v>
       </c>
     </row>
     <row r="21">
@@ -805,81 +813,81 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>0.07049822995412422</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.2929137790038338</v>
       </c>
     </row>
     <row r="25">
@@ -889,81 +897,83 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>21</v>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>-0.07620448580810316</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.3296364575566508</v>
       </c>
     </row>
     <row r="29">
@@ -973,81 +983,83 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>21</v>
+        <v>200</v>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>90</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>-0.07620448580810316</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.3296364575566508</v>
       </c>
     </row>
     <row r="33">
@@ -1057,25 +1069,27 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1083,55 +1097,55 @@
         <v>60</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>-0.08390596390072934</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.3175294064191797</v>
       </c>
     </row>
     <row r="37">
@@ -1141,25 +1155,27 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1167,55 +1183,55 @@
         <v>60</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>105</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="0" t="n">
-        <v>0.06200323301893793</v>
+        <v>-0.08390596390072934</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.6872123299687376</v>
+        <v>0.3175294064191797</v>
       </c>
     </row>
     <row r="41">
@@ -1225,19 +1241,27 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1245,32 +1269,44 @@
         <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
@@ -1278,10 +1314,10 @@
     </row>
     <row r="44">
       <c r="B44" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.08390596390072934</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.3175294064191797</v>
       </c>
     </row>
     <row r="45">
@@ -1291,19 +1327,27 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1311,32 +1355,44 @@
         <v>60</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
+        <v>1400</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
@@ -1344,10 +1400,10 @@
     </row>
     <row r="48">
       <c r="B48" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.08390596390072934</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.3175294064191797</v>
       </c>
     </row>
     <row r="49">
@@ -1357,19 +1413,27 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1377,32 +1441,44 @@
         <v>60</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
+        <v>1400</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
@@ -1410,10 +1486,10 @@
     </row>
     <row r="52">
       <c r="B52" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.08390596390072934</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.3175294064191797</v>
       </c>
     </row>
     <row r="53">
@@ -1423,19 +1499,27 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1443,32 +1527,44 @@
         <v>60</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
+        <v>1400</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
@@ -1476,10 +1572,10 @@
     </row>
     <row r="56">
       <c r="B56" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.08391671028169337</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.3175086894652929</v>
       </c>
     </row>
     <row r="57">
@@ -1489,19 +1585,27 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1509,32 +1613,44 @@
         <v>60</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
@@ -1542,10 +1658,10 @@
     </row>
     <row r="60">
       <c r="B60" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.08391671028169337</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.3175086894652929</v>
       </c>
     </row>
     <row r="61">
@@ -1555,19 +1671,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1575,32 +1699,44 @@
         <v>60</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
+        <v>1400</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
@@ -1608,10 +1744,10 @@
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.08391671028169337</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.3175086894652929</v>
       </c>
     </row>
     <row r="65">
@@ -1621,19 +1757,27 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1641,32 +1785,44 @@
         <v>60</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F67" s="0" t="inlineStr">
+        <v>1400</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
@@ -1674,10 +1830,10 @@
     </row>
     <row r="68">
       <c r="B68" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.08391671028169337</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.3175086894652929</v>
       </c>
     </row>
     <row r="69">
@@ -1687,63 +1843,81 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C69" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G69" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>23</v>
+      <c r="H69" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>700</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.08550230601968636</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.313079833727644</v>
       </c>
     </row>
     <row r="73">
@@ -1753,63 +1927,83 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F74" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C74" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>90</v>
+      <c r="G74" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D75" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G75" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="E75" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 25 ships</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.09398316963384654</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.2889722271951228</v>
       </c>
     </row>
     <row r="77">
@@ -1819,63 +2013,83 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F78" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C78" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>90</v>
+      <c r="G78" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F79" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>1400</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1204827243552698</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.2672823424781668</v>
       </c>
     </row>
     <row r="81">
@@ -1885,63 +2099,83 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F82" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C82" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>90</v>
+      <c r="G82" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F83" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>1400</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1222550921130677</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.2680885149904444</v>
       </c>
     </row>
     <row r="85">
@@ -1951,63 +2185,83 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F87" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>1500</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 25 ships</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1467624448935607</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.2476255631665885</v>
       </c>
     </row>
     <row r="89">
@@ -2017,63 +2271,83 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F91" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>1500</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 25 ships</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1467624448935607</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.2476255631665885</v>
       </c>
     </row>
     <row r="93">
@@ -2083,63 +2357,83 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F95" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>1500</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 25 ships</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1467624448935607</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.2476255631665885</v>
       </c>
     </row>
     <row r="97">
@@ -2149,63 +2443,83 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F99" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>1500</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 25 ships</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1467624448935607</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.2476255631665885</v>
       </c>
     </row>
     <row r="101">
@@ -2215,63 +2529,83 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F103" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.176584786622796</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04514042607980159</v>
       </c>
     </row>
     <row r="105">
@@ -2281,63 +2615,83 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F107" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.176584786622796</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04514042607980159</v>
       </c>
     </row>
     <row r="109">
@@ -2347,63 +2701,83 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F111" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>1400</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="113">
@@ -2413,63 +2787,83 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F114" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D114" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>90</v>
+      <c r="G114" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F115" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H115" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="117">
@@ -2479,63 +2873,83 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H117" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F118" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C118" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D118" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F118" s="0" t="n">
-        <v>90</v>
+      <c r="G118" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F119" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="121">
@@ -2545,63 +2959,83 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F122" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C122" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D122" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F122" s="0" t="n">
-        <v>90</v>
+      <c r="G122" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F123" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="125">
@@ -2611,63 +3045,83 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F126" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C126" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F126" s="0" t="n">
-        <v>90</v>
+      <c r="G126" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F127" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H127" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="129">
@@ -2677,63 +3131,83 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H129" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F130" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C130" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="D130" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F130" s="0" t="n">
-        <v>90</v>
+      <c r="G130" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F131" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H131" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="133">
@@ -2743,63 +3217,83 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H133" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F134" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C134" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F134" s="0" t="n">
-        <v>90</v>
+      <c r="G134" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F135" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H135" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="137">
@@ -2809,63 +3303,83 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H137" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F138" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C138" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D138" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F138" s="0" t="n">
-        <v>90</v>
+      <c r="G138" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F139" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H139" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="141">
@@ -2875,63 +3389,83 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H141" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F142" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C142" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D142" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F142" s="0" t="n">
-        <v>90</v>
+      <c r="G142" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F143" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H143" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="B144" s="0" t="n">
-        <v>0.6996748627820202</v>
+        <v>-0.1775592329863954</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.2638167449864009</v>
+        <v>0.04453200500469658</v>
       </c>
     </row>
     <row r="145">
@@ -2941,63 +3475,83 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H145" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F147" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H147" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="B148" s="0" t="n">
-        <v>0.6996224563929282</v>
+        <v>-0.2093802748276753</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.2636884896658899</v>
+        <v>0.1869111824279736</v>
       </c>
     </row>
     <row r="149">
@@ -3007,63 +3561,83 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H149" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F151" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H151" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="B152" s="0" t="n">
-        <v>0.6996224563929282</v>
+        <v>-0.2093802748276753</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.2636884896658899</v>
+        <v>0.1869111824279736</v>
       </c>
     </row>
     <row r="153">
@@ -3073,63 +3647,83 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H153" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F155" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H155" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="0" t="n">
-        <v>0.6996224563929282</v>
+        <v>-0.2093802748276753</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0.2636884896658899</v>
+        <v>0.1869111824279736</v>
       </c>
     </row>
     <row r="157">
@@ -3139,63 +3733,83 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H157" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="B158" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F158" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C158" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E158" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F158" s="0" t="n">
-        <v>90</v>
+      <c r="G158" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F159" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
+        <v>3000</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H159" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="B160" s="0" t="n">
-        <v>0.6981732054481661</v>
+        <v>-0.2168331608334343</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0.2601612921307615</v>
+        <v>0.1833855763124629</v>
       </c>
     </row>
     <row r="161">

--- a/output/ship_rule_integrate.xlsx
+++ b/output/ship_rule_integrate.xlsx
@@ -383,22 +383,22 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
@@ -408,22 +408,22 @@
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
@@ -433,35 +433,35 @@
     </row>
     <row r="3">
       <c r="B3" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.1793263158819565</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.1044080141801092</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
     </row>
     <row r="6">
       <c r="B6" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
@@ -521,35 +521,35 @@
     </row>
     <row r="7">
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.1793263158819565</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.1044080141801092</v>
       </c>
     </row>
     <row r="9">
@@ -559,22 +559,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -584,22 +584,22 @@
     </row>
     <row r="10">
       <c r="B10" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
@@ -609,35 +609,35 @@
     </row>
     <row r="11">
       <c r="B11" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.1793263158819565</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.1044080141801092</v>
       </c>
     </row>
     <row r="13">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
@@ -672,22 +672,22 @@
     </row>
     <row r="14">
       <c r="B14" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
@@ -697,35 +697,35 @@
     </row>
     <row r="15">
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.1793263158819565</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.1044080141801092</v>
       </c>
     </row>
     <row r="17">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
@@ -760,22 +760,22 @@
     </row>
     <row r="18">
       <c r="B18" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
@@ -785,35 +785,35 @@
     </row>
     <row r="19">
       <c r="B19" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.1793263158819565</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.1044080141801092</v>
       </c>
     </row>
     <row r="21">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
@@ -848,22 +848,22 @@
     </row>
     <row r="22">
       <c r="B22" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
@@ -873,35 +873,35 @@
     </row>
     <row r="23">
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.1793263158819565</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.1044080141801092</v>
       </c>
     </row>
     <row r="25">
@@ -911,22 +911,22 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
@@ -936,22 +936,22 @@
     </row>
     <row r="26">
       <c r="B26" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
@@ -961,35 +961,35 @@
     </row>
     <row r="27">
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.1793263158819565</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.1044080141801092</v>
       </c>
     </row>
     <row r="29">
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
@@ -1024,22 +1024,22 @@
     </row>
     <row r="30">
       <c r="B30" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
@@ -1049,35 +1049,35 @@
     </row>
     <row r="31">
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>12month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.1793263158819565</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.1044080141801092</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>110</v>
@@ -1112,60 +1112,60 @@
     </row>
     <row r="34">
       <c r="B34" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 50 ships</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>70</v>
-      </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="0" t="n">
-        <v>0.3863699174990837</v>
+        <v>0.0751977170525911</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.2114099581093005</v>
+        <v>0.0007721638932780874</v>
       </c>
     </row>
     <row r="37">
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
@@ -1200,60 +1200,60 @@
     </row>
     <row r="38">
       <c r="B38" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 80 ships</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>3month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="0" t="n">
-        <v>0.4028644417949471</v>
+        <v>0.06551251724129391</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.3098197354549286</v>
+        <v>0.0009532033421444357</v>
       </c>
     </row>
     <row r="41">
@@ -1263,22 +1263,22 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
@@ -1288,60 +1288,60 @@
     </row>
     <row r="42">
       <c r="B42" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E42" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="F42" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="G42" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 25 ships</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>6month charter, 100 ships</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0" t="n">
-        <v>0.4028644417949471</v>
+        <v>0.04709753181522083</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.3098197354549286</v>
+        <v>0.001777595180316166</v>
       </c>
     </row>
     <row r="45">
@@ -1351,22 +1351,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
@@ -1376,60 +1376,60 @@
     </row>
     <row r="46">
       <c r="B46" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>6month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="0" t="n">
-        <v>0.4028644417949471</v>
+        <v>0.008059392659000963</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.3098197354549286</v>
+        <v>0.09771099625629363</v>
       </c>
     </row>
     <row r="49">
@@ -1439,85 +1439,85 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C49" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 12</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 80 ships</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>6month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="0" t="n">
-        <v>0.4028644417949471</v>
+        <v>-0.03043678262807633</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.3098197354549286</v>
+        <v>0.001051820498873746</v>
       </c>
     </row>
     <row r="53">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1300</v>
@@ -1542,7 +1542,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
@@ -1552,60 +1552,60 @@
     </row>
     <row r="54">
       <c r="B54" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="F54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="G54" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 90 ships</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="0" t="n">
-        <v>0.4028154862318819</v>
+        <v>-0.06502812508640564</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.309884376297173</v>
+        <v>0.0002856113359384135</v>
       </c>
     </row>
     <row r="57">
@@ -1615,85 +1615,85 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 90 ships</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>36month charter, 1 ships</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="0" t="n">
-        <v>0.3536974850635795</v>
+        <v>-0.07426429082354349</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.2733389254862325</v>
+        <v>0.0002285815737254787</v>
       </c>
     </row>
     <row r="61">
@@ -1703,85 +1703,85 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 90 ships</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>36month charter, 1 ships</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="0" t="n">
-        <v>0.3536974850635795</v>
+        <v>-0.07426429082354349</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.2733389254862325</v>
+        <v>0.0002285815737254787</v>
       </c>
     </row>
     <row r="65">
@@ -1791,22 +1791,22 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C65" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="G65" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <v>140</v>
       </c>
       <c r="H65" s="0" t="inlineStr">
         <is>
@@ -1816,60 +1816,60 @@
     </row>
     <row r="66">
       <c r="B66" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 70 ships</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H67" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>6month charter, 3 ships</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="0" t="n">
-        <v>0.3536974850635795</v>
+        <v>-0.07605370193622697</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.2733389254862325</v>
+        <v>0.000191277701006062</v>
       </c>
     </row>
     <row r="69">
@@ -1879,85 +1879,85 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 23</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F70" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="G70" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 80 ships</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="0" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>140</v>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="0" t="n">
-        <v>0.3536974850635795</v>
+        <v>-0.07606106141069571</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.2733389254862325</v>
+        <v>0.0001986350642842516</v>
       </c>
     </row>
     <row r="73">
@@ -1967,19 +1967,19 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>95</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="74">
       <c r="B74" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
@@ -2017,35 +2017,35 @@
     </row>
     <row r="75">
       <c r="B75" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 60 ships</t>
+          <t>12month charter, 40 ships</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="0" t="n">
-        <v>0.2070867263613882</v>
+        <v>-0.1058092353905502</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.2775864736382336</v>
+        <v>0.06581535506042055</v>
       </c>
     </row>
     <row r="77">
@@ -2055,19 +2055,19 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>95</v>
@@ -2080,22 +2080,22 @@
     </row>
     <row r="78">
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H78" s="0" t="inlineStr">
         <is>
@@ -2105,35 +2105,35 @@
     </row>
     <row r="79">
       <c r="B79" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H79" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 60 ships</t>
+          <t>12month charter, 40 ships</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="0" t="n">
-        <v>0.2070867263613882</v>
+        <v>-0.1058092353905502</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.2775864736382336</v>
+        <v>0.06581535506042055</v>
       </c>
     </row>
     <row r="81">
@@ -2143,22 +2143,22 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
@@ -2168,60 +2168,60 @@
     </row>
     <row r="82">
       <c r="B82" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H82" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 40 ships</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C83" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="E83" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="G83" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 60 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="0" t="n">
-        <v>0.2054048786545229</v>
+        <v>-0.1616963964504246</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.2554491074479501</v>
+        <v>0.01421662031598252</v>
       </c>
     </row>
     <row r="85">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
@@ -2256,60 +2256,60 @@
     </row>
     <row r="86">
       <c r="B86" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>36month charter, 15 ships</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="0" t="n">
-        <v>0.1055882378903716</v>
+        <v>-0.2700261897926339</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.2613844648606211</v>
+        <v>0.1028390497449367</v>
       </c>
     </row>
     <row r="89">
@@ -2319,22 +2319,22 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H89" s="0" t="inlineStr">
         <is>
@@ -2344,60 +2344,60 @@
     </row>
     <row r="90">
       <c r="B90" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C90" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F90" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="G90" s="0" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="H90" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="0" t="n">
-        <v>0.03735420569544133</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.04412231132886889</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="93">
@@ -2407,22 +2407,22 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
@@ -2432,60 +2432,60 @@
     </row>
     <row r="94">
       <c r="B94" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H95" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="0" t="n">
-        <v>0.03735420569544133</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.04412231132886889</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="97">
@@ -2498,23 +2498,23 @@
         <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>70</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H97" s="0" t="inlineStr">
         <is>
-          <t>change speed to 18</t>
+          <t>change speed to 19</t>
         </is>
       </c>
     </row>
@@ -2523,19 +2523,19 @@
         <v>100</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H98" s="0" t="inlineStr">
         <is>
@@ -2545,35 +2545,35 @@
     </row>
     <row r="99">
       <c r="B99" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="H99" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 90 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="0" t="n">
-        <v>0.03140441618436061</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.2053855290175475</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="101">
@@ -2583,26 +2583,26 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C101" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D101" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E101" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F101" s="0" t="n">
+      <c r="G101" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="G101" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H101" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
     </row>
@@ -2611,57 +2611,57 @@
         <v>10</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H102" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H103" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 60 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="0" t="n">
-        <v>0.03012080073491956</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.06258796300488659</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="105">
@@ -2671,85 +2671,85 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H105" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H106" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H107" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 60 ships</t>
+          <t>3month charter, 0 ships</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="0" t="n">
-        <v>0.03012080073491956</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.06258796300488659</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="109">
@@ -2759,26 +2759,26 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F109" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C109" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D109" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E109" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F109" s="0" t="n">
+      <c r="G109" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="G109" s="0" t="n">
-        <v>160</v>
-      </c>
       <c r="H109" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 18</t>
         </is>
       </c>
     </row>
@@ -2787,57 +2787,57 @@
         <v>10</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H110" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H111" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 60 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="0" t="n">
-        <v>0.03012080073491956</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.06258796300488659</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="113">
@@ -2847,85 +2847,85 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H113" s="0" t="inlineStr">
         <is>
-          <t>change speed to 18</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C114" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D114" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H114" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>sell 0 ships</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H115" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 90 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="0" t="n">
-        <v>0.01727526523144558</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.2178986403383891</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="117">
@@ -2935,22 +2935,22 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H117" s="0" t="inlineStr">
         <is>
@@ -2960,26 +2960,26 @@
     </row>
     <row r="118">
       <c r="B118" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H118" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -2988,32 +2988,32 @@
         <v>60</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D119" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E119" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E119" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="F119" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="H119" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="0" t="n">
-        <v>0.01027519790628957</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.3070911783310507</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="121">
@@ -3023,51 +3023,51 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>140</v>
       </c>
       <c r="H121" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 19</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>130</v>
       </c>
       <c r="H122" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -3076,32 +3076,32 @@
         <v>70</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="H123" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="0" t="n">
-        <v>-0.002635110589222617</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.3173168590590394</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="125">
@@ -3111,72 +3111,72 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>60</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="H125" s="0" t="inlineStr">
         <is>
-          <t>change speed to 20</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="H126" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H127" s="0" t="inlineStr">
         <is>
@@ -3186,10 +3186,10 @@
     </row>
     <row r="128">
       <c r="B128" s="0" t="n">
-        <v>-0.006793848212650952</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.3490593377313477</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="129">
@@ -3199,22 +3199,22 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H129" s="0" t="inlineStr">
         <is>
@@ -3224,47 +3224,47 @@
     </row>
     <row r="130">
       <c r="B130" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H130" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H131" s="0" t="inlineStr">
         <is>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="132">
       <c r="B132" s="0" t="n">
-        <v>-0.01271996316290907</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.3149033083912188</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="133">
@@ -3290,69 +3290,69 @@
         <v>10</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H133" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H134" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 0 ships</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H135" s="0" t="inlineStr">
         <is>
@@ -3362,10 +3362,10 @@
     </row>
     <row r="136">
       <c r="B136" s="0" t="n">
-        <v>-0.01271996316290907</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.3149033083912188</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="137">
@@ -3375,26 +3375,26 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="H137" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -3406,41 +3406,41 @@
         <v>100</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H138" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>sell 0 ships</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="H139" s="0" t="inlineStr">
         <is>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="140">
       <c r="B140" s="0" t="n">
-        <v>-0.01271996316290907</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.3149033083912188</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="141">
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>60</v>
@@ -3482,16 +3482,16 @@
       </c>
       <c r="H141" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>change speed to 18</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>500</v>
@@ -3500,35 +3500,35 @@
         <v>1800</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H142" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="H143" s="0" t="inlineStr">
         <is>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="144">
       <c r="B144" s="0" t="n">
-        <v>-0.01271996316290907</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.3149033083912188</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="145">
@@ -3551,72 +3551,72 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H145" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="H146" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H147" s="0" t="inlineStr">
         <is>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="148">
       <c r="B148" s="0" t="n">
-        <v>-0.01271996316290907</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.3149033083912188</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="149">
@@ -3639,26 +3639,26 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="H149" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -3667,44 +3667,44 @@
         <v>50</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H150" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H151" s="0" t="inlineStr">
         <is>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="152">
       <c r="B152" s="0" t="n">
-        <v>-0.01271996316290907</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.3149033083912188</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="153">
@@ -3727,72 +3727,72 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H153" s="0" t="inlineStr">
         <is>
-          <t>change speed to 19</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H154" s="0" t="inlineStr">
         <is>
-          <t>sell 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F155" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H155" s="0" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="156">
       <c r="B156" s="0" t="n">
-        <v>-0.01293369345524645</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0.3299342049709236</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="157">
@@ -3815,47 +3815,47 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H157" s="0" t="inlineStr">
         <is>
-          <t>change speed to 20</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="B158" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H158" s="0" t="inlineStr">
         <is>
@@ -3865,22 +3865,22 @@
     </row>
     <row r="159">
       <c r="B159" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H159" s="0" t="inlineStr">
         <is>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="160">
       <c r="B160" s="0" t="n">
-        <v>-0.01546678947655049</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0.335002991244646</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="161">
@@ -3903,44 +3903,44 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H161" s="0" t="inlineStr">
         <is>
-          <t>change speed to 20</t>
+          <t>change speed to 24</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>95</v>
@@ -3953,22 +3953,22 @@
     </row>
     <row r="163">
       <c r="B163" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="H163" s="0" t="inlineStr">
         <is>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="164">
       <c r="B164" s="0" t="n">
-        <v>-0.01546678947655049</v>
+        <v>-0.3199686243420975</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.335002991244646</v>
+        <v>0.08960606555915766</v>
       </c>
     </row>
     <row r="165">
@@ -3991,51 +3991,51 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H165" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 24</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H166" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
@@ -4044,32 +4044,32 @@
         <v>10</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H167" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 60 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="0" t="n">
-        <v>-0.01599536849338973</v>
+        <v>-0.3199686243420975</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0.07071049251693109</v>
+        <v>0.08960606555915766</v>
       </c>
     </row>
     <row r="169">
@@ -4079,26 +4079,26 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="E169" s="0" t="n">
-        <v>1800</v>
-      </c>
       <c r="F169" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H169" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 14</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
         <v>10</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>500</v>
@@ -4116,48 +4116,48 @@
         <v>3000</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H170" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H171" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 60 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="B172" s="0" t="n">
-        <v>-0.01599536849338973</v>
+        <v>-0.4328540693605816</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>0.07071049251693109</v>
+        <v>0.04966479745970398</v>
       </c>
     </row>
     <row r="173">
@@ -4167,85 +4167,85 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F173" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C173" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D173" s="0" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E173" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F173" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="G173" s="0" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H173" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>change speed to 22</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="H174" s="0" t="inlineStr">
         <is>
-          <t>sell 20 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="B175" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H175" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 60 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="0" t="n">
-        <v>-0.01599536849338973</v>
+        <v>-0.4651637848562376</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>0.07071049251693109</v>
+        <v>0.1989874892748303</v>
       </c>
     </row>
     <row r="177">
